--- a/polls/IROS20_WSandTR.xlsx
+++ b/polls/IROS20_WSandTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13DDE47-7015-400A-953F-564AC7242E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A0DA9-07BE-4D60-96F3-169C19D3C69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9447,20 +9447,20 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9682,9 +9682,9 @@
   </sheetPr>
   <dimension ref="A1:AL931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A664" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G423" sqref="G423"/>
+      <selection pane="topRight" activeCell="I699" sqref="I699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9932,10 +9932,10 @@
       <c r="M3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="77"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="10" t="s">
         <v>56</v>
       </c>
@@ -9994,10 +9994,10 @@
       <c r="M4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="77"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="10" t="s">
         <v>62</v>
       </c>
@@ -10120,10 +10120,10 @@
       <c r="M6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="77"/>
+      <c r="O6" s="78"/>
       <c r="P6" s="10" t="s">
         <v>75</v>
       </c>
@@ -10184,10 +10184,10 @@
       <c r="M7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="76" t="s">
+      <c r="N7" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="77"/>
+      <c r="O7" s="78"/>
       <c r="P7" s="10" t="s">
         <v>82</v>
       </c>
@@ -10248,10 +10248,10 @@
       <c r="M8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="76" t="s">
+      <c r="N8" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="77"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="10" t="s">
         <v>89</v>
       </c>
@@ -10312,10 +10312,10 @@
       <c r="M9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="N9" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="77"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="10" t="s">
         <v>96</v>
       </c>
@@ -10440,10 +10440,10 @@
       <c r="M11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="N11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="10" t="s">
         <v>110</v>
       </c>
@@ -10634,10 +10634,10 @@
       <c r="M14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="77"/>
+      <c r="O14" s="78"/>
       <c r="P14" s="10" t="s">
         <v>131</v>
       </c>
@@ -10700,10 +10700,10 @@
       <c r="M15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="O15" s="77"/>
+      <c r="O15" s="78"/>
       <c r="P15" s="10" t="s">
         <v>138</v>
       </c>
@@ -10766,10 +10766,10 @@
       <c r="M16" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="76" t="s">
+      <c r="N16" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="77"/>
+      <c r="O16" s="78"/>
       <c r="P16" s="10" t="s">
         <v>145</v>
       </c>
@@ -10914,10 +10914,10 @@
       <c r="M18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="76" t="s">
+      <c r="N18" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O18" s="77"/>
+      <c r="O18" s="78"/>
       <c r="P18" s="10" t="s">
         <v>167</v>
       </c>
@@ -10986,10 +10986,10 @@
       <c r="M19" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="O19" s="77"/>
+      <c r="O19" s="78"/>
       <c r="P19" s="10" t="s">
         <v>174</v>
       </c>
@@ -11050,10 +11050,10 @@
       <c r="M20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="O20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="10" t="s">
         <v>178</v>
       </c>
@@ -11114,10 +11114,10 @@
       <c r="M21" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O21" s="77"/>
+      <c r="O21" s="78"/>
       <c r="P21" s="10" t="s">
         <v>184</v>
       </c>
@@ -11306,10 +11306,10 @@
       <c r="M24" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="N24" s="76" t="s">
+      <c r="N24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="77"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="10" t="s">
         <v>201</v>
       </c>
@@ -11434,10 +11434,10 @@
       <c r="M26" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N26" s="76" t="s">
+      <c r="N26" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="O26" s="77"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="10" t="s">
         <v>213</v>
       </c>
@@ -11498,10 +11498,10 @@
       <c r="M27" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N27" s="76" t="s">
+      <c r="N27" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="O27" s="77"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="10" t="s">
         <v>219</v>
       </c>
@@ -11626,10 +11626,10 @@
       <c r="M29" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="O29" s="77"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="10" t="s">
         <v>231</v>
       </c>
@@ -11688,10 +11688,10 @@
       <c r="M30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="76" t="s">
+      <c r="N30" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="O30" s="77"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14"/>
@@ -11878,10 +11878,10 @@
       <c r="M33" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="N33" s="76" t="s">
+      <c r="N33" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="O33" s="77"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="10" t="s">
         <v>252</v>
       </c>
@@ -11940,10 +11940,10 @@
       <c r="M34" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N34" s="76" t="s">
+      <c r="N34" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="O34" s="77"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="14"/>
@@ -13493,7 +13493,7 @@
       <c r="N57" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O57" s="77"/>
+      <c r="O57" s="78"/>
       <c r="P57" s="18" t="s">
         <v>378</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="N58" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O58" s="77"/>
+      <c r="O58" s="78"/>
       <c r="P58" s="18" t="s">
         <v>391</v>
       </c>
@@ -13643,7 +13643,7 @@
       <c r="N59" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O59" s="77"/>
+      <c r="O59" s="78"/>
       <c r="P59" s="18" t="s">
         <v>395</v>
       </c>
@@ -13705,7 +13705,7 @@
       <c r="N60" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O60" s="77"/>
+      <c r="O60" s="78"/>
       <c r="P60" s="18" t="s">
         <v>398</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="N61" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O61" s="77"/>
+      <c r="O61" s="78"/>
       <c r="P61" s="18" t="s">
         <v>402</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="N62" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O62" s="77"/>
+      <c r="O62" s="78"/>
       <c r="P62" s="18" t="s">
         <v>406</v>
       </c>
@@ -13897,7 +13897,7 @@
       <c r="N63" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O63" s="77"/>
+      <c r="O63" s="78"/>
       <c r="P63" s="18" t="s">
         <v>410</v>
       </c>
@@ -13961,7 +13961,7 @@
       <c r="N64" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O64" s="77"/>
+      <c r="O64" s="78"/>
       <c r="P64" s="18" t="s">
         <v>414</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="N65" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O65" s="77"/>
+      <c r="O65" s="78"/>
       <c r="P65" s="18" t="s">
         <v>418</v>
       </c>
@@ -14089,7 +14089,7 @@
       <c r="N66" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="O66" s="77"/>
+      <c r="O66" s="78"/>
       <c r="P66" s="18" t="s">
         <v>422</v>
       </c>
@@ -14152,10 +14152,10 @@
       <c r="M67" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N67" s="76" t="s">
+      <c r="N67" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O67" s="77"/>
+      <c r="O67" s="78"/>
       <c r="P67" s="10" t="s">
         <v>431</v>
       </c>
@@ -14256,10 +14256,10 @@
       <c r="M68" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N68" s="76" t="s">
+      <c r="N68" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O68" s="77"/>
+      <c r="O68" s="78"/>
       <c r="P68" s="10" t="s">
         <v>447</v>
       </c>
@@ -14322,10 +14322,10 @@
       <c r="M69" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N69" s="76" t="s">
+      <c r="N69" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O69" s="77"/>
+      <c r="O69" s="78"/>
       <c r="P69" s="10" t="s">
         <v>450</v>
       </c>
@@ -14388,10 +14388,10 @@
       <c r="M70" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N70" s="76" t="s">
+      <c r="N70" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O70" s="77"/>
+      <c r="O70" s="78"/>
       <c r="P70" s="10" t="s">
         <v>453</v>
       </c>
@@ -14454,10 +14454,10 @@
       <c r="M71" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N71" s="76" t="s">
+      <c r="N71" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O71" s="77"/>
+      <c r="O71" s="78"/>
       <c r="P71" s="10" t="s">
         <v>456</v>
       </c>
@@ -14520,10 +14520,10 @@
       <c r="M72" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N72" s="76" t="s">
+      <c r="N72" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O72" s="77"/>
+      <c r="O72" s="78"/>
       <c r="P72" s="10" t="s">
         <v>459</v>
       </c>
@@ -14586,10 +14586,10 @@
       <c r="M73" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N73" s="76" t="s">
+      <c r="N73" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O73" s="77"/>
+      <c r="O73" s="78"/>
       <c r="P73" s="10" t="s">
         <v>462</v>
       </c>
@@ -14652,10 +14652,10 @@
       <c r="M74" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N74" s="76" t="s">
+      <c r="N74" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O74" s="77"/>
+      <c r="O74" s="78"/>
       <c r="P74" s="10" t="s">
         <v>465</v>
       </c>
@@ -14718,10 +14718,10 @@
       <c r="M75" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N75" s="76" t="s">
+      <c r="N75" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O75" s="77"/>
+      <c r="O75" s="78"/>
       <c r="P75" s="10" t="s">
         <v>468</v>
       </c>
@@ -14784,10 +14784,10 @@
       <c r="M76" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N76" s="76" t="s">
+      <c r="N76" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O76" s="77"/>
+      <c r="O76" s="78"/>
       <c r="P76" s="10" t="s">
         <v>471</v>
       </c>
@@ -14850,10 +14850,10 @@
       <c r="M77" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N77" s="76" t="s">
+      <c r="N77" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O77" s="77"/>
+      <c r="O77" s="78"/>
       <c r="P77" s="10" t="s">
         <v>474</v>
       </c>
@@ -14916,10 +14916,10 @@
       <c r="M78" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N78" s="76" t="s">
+      <c r="N78" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O78" s="77"/>
+      <c r="O78" s="78"/>
       <c r="P78" s="10" t="s">
         <v>477</v>
       </c>
@@ -14982,10 +14982,10 @@
       <c r="M79" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N79" s="76" t="s">
+      <c r="N79" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O79" s="77"/>
+      <c r="O79" s="78"/>
       <c r="P79" s="10" t="s">
         <v>480</v>
       </c>
@@ -15048,10 +15048,10 @@
       <c r="M80" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N80" s="76" t="s">
+      <c r="N80" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O80" s="77"/>
+      <c r="O80" s="78"/>
       <c r="P80" s="10" t="s">
         <v>480</v>
       </c>
@@ -15110,10 +15110,10 @@
       <c r="M81" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N81" s="76" t="s">
+      <c r="N81" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O81" s="77"/>
+      <c r="O81" s="78"/>
       <c r="P81" s="20"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="14"/>
@@ -15179,7 +15179,7 @@
       <c r="N82" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O82" s="77"/>
+      <c r="O82" s="78"/>
       <c r="P82" s="18" t="s">
         <v>493</v>
       </c>
@@ -15263,7 +15263,7 @@
       <c r="N83" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O83" s="77"/>
+      <c r="O83" s="78"/>
       <c r="P83" s="18" t="s">
         <v>493</v>
       </c>
@@ -15327,7 +15327,7 @@
       <c r="N84" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O84" s="77"/>
+      <c r="O84" s="78"/>
       <c r="P84" s="18" t="s">
         <v>506</v>
       </c>
@@ -15391,7 +15391,7 @@
       <c r="N85" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O85" s="77"/>
+      <c r="O85" s="78"/>
       <c r="P85" s="18" t="s">
         <v>510</v>
       </c>
@@ -15455,7 +15455,7 @@
       <c r="N86" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O86" s="77"/>
+      <c r="O86" s="78"/>
       <c r="P86" s="18" t="s">
         <v>514</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="N87" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O87" s="77"/>
+      <c r="O87" s="78"/>
       <c r="P87" s="18" t="s">
         <v>518</v>
       </c>
@@ -15583,7 +15583,7 @@
       <c r="N88" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O88" s="77"/>
+      <c r="O88" s="78"/>
       <c r="P88" s="18" t="s">
         <v>522</v>
       </c>
@@ -15647,7 +15647,7 @@
       <c r="N89" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O89" s="77"/>
+      <c r="O89" s="78"/>
       <c r="P89" s="18" t="s">
         <v>526</v>
       </c>
@@ -15711,7 +15711,7 @@
       <c r="N90" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O90" s="77"/>
+      <c r="O90" s="78"/>
       <c r="P90" s="18" t="s">
         <v>530</v>
       </c>
@@ -15775,7 +15775,7 @@
       <c r="N91" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O91" s="77"/>
+      <c r="O91" s="78"/>
       <c r="P91" s="18" t="s">
         <v>534</v>
       </c>
@@ -15839,7 +15839,7 @@
       <c r="N92" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O92" s="77"/>
+      <c r="O92" s="78"/>
       <c r="P92" s="18" t="s">
         <v>538</v>
       </c>
@@ -15903,7 +15903,7 @@
       <c r="N93" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="O93" s="77"/>
+      <c r="O93" s="78"/>
       <c r="P93" s="18" t="s">
         <v>522</v>
       </c>
@@ -15966,10 +15966,10 @@
       <c r="M94" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N94" s="76" t="s">
+      <c r="N94" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O94" s="77"/>
+      <c r="O94" s="78"/>
       <c r="P94" s="10" t="s">
         <v>551</v>
       </c>
@@ -16040,10 +16040,10 @@
       <c r="M95" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N95" s="76" t="s">
+      <c r="N95" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O95" s="77"/>
+      <c r="O95" s="78"/>
       <c r="P95" s="10" t="s">
         <v>557</v>
       </c>
@@ -16104,10 +16104,10 @@
       <c r="M96" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N96" s="76" t="s">
+      <c r="N96" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O96" s="77"/>
+      <c r="O96" s="78"/>
       <c r="P96" s="10" t="s">
         <v>561</v>
       </c>
@@ -16170,10 +16170,10 @@
       <c r="M97" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N97" s="76" t="s">
+      <c r="N97" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O97" s="77"/>
+      <c r="O97" s="78"/>
       <c r="P97" s="10" t="s">
         <v>565</v>
       </c>
@@ -16236,10 +16236,10 @@
       <c r="M98" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N98" s="76" t="s">
+      <c r="N98" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O98" s="77"/>
+      <c r="O98" s="78"/>
       <c r="P98" s="10" t="s">
         <v>569</v>
       </c>
@@ -16300,10 +16300,10 @@
       <c r="M99" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N99" s="76" t="s">
+      <c r="N99" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O99" s="77"/>
+      <c r="O99" s="78"/>
       <c r="P99" s="10" t="s">
         <v>573</v>
       </c>
@@ -16364,10 +16364,10 @@
       <c r="M100" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N100" s="76" t="s">
+      <c r="N100" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O100" s="77"/>
+      <c r="O100" s="78"/>
       <c r="P100" s="10" t="s">
         <v>577</v>
       </c>
@@ -16428,10 +16428,10 @@
       <c r="M101" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N101" s="76" t="s">
+      <c r="N101" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O101" s="77"/>
+      <c r="O101" s="78"/>
       <c r="P101" s="10" t="s">
         <v>581</v>
       </c>
@@ -16492,10 +16492,10 @@
       <c r="M102" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N102" s="76" t="s">
+      <c r="N102" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O102" s="77"/>
+      <c r="O102" s="78"/>
       <c r="P102" s="10" t="s">
         <v>585</v>
       </c>
@@ -16556,10 +16556,10 @@
       <c r="M103" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="N103" s="76" t="s">
+      <c r="N103" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O103" s="77"/>
+      <c r="O103" s="78"/>
       <c r="P103" s="10" t="s">
         <v>589</v>
       </c>
@@ -16625,7 +16625,7 @@
       <c r="N104" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O104" s="77"/>
+      <c r="O104" s="78"/>
       <c r="P104" s="18" t="s">
         <v>598</v>
       </c>
@@ -16715,7 +16715,7 @@
       <c r="N105" s="79" t="s">
         <v>612</v>
       </c>
-      <c r="O105" s="77"/>
+      <c r="O105" s="78"/>
       <c r="P105" s="18" t="s">
         <v>613</v>
       </c>
@@ -16779,7 +16779,7 @@
       <c r="N106" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O106" s="77"/>
+      <c r="O106" s="78"/>
       <c r="P106" s="18" t="s">
         <v>617</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="N107" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O107" s="77"/>
+      <c r="O107" s="78"/>
       <c r="P107" s="18" t="s">
         <v>621</v>
       </c>
@@ -16907,7 +16907,7 @@
       <c r="N108" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O108" s="77"/>
+      <c r="O108" s="78"/>
       <c r="P108" s="18" t="s">
         <v>625</v>
       </c>
@@ -16971,7 +16971,7 @@
       <c r="N109" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O109" s="77"/>
+      <c r="O109" s="78"/>
       <c r="P109" s="18" t="s">
         <v>629</v>
       </c>
@@ -17035,7 +17035,7 @@
       <c r="N110" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O110" s="77"/>
+      <c r="O110" s="78"/>
       <c r="P110" s="18" t="s">
         <v>633</v>
       </c>
@@ -17099,7 +17099,7 @@
       <c r="N111" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O111" s="77"/>
+      <c r="O111" s="78"/>
       <c r="P111" s="18" t="s">
         <v>637</v>
       </c>
@@ -17163,7 +17163,7 @@
       <c r="N112" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O112" s="77"/>
+      <c r="O112" s="78"/>
       <c r="P112" s="18" t="s">
         <v>641</v>
       </c>
@@ -17227,7 +17227,7 @@
       <c r="N113" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O113" s="77"/>
+      <c r="O113" s="78"/>
       <c r="P113" s="18" t="s">
         <v>644</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="N114" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O114" s="77"/>
+      <c r="O114" s="78"/>
       <c r="P114" s="18" t="s">
         <v>647</v>
       </c>
@@ -17355,7 +17355,7 @@
       <c r="N115" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O115" s="77"/>
+      <c r="O115" s="78"/>
       <c r="P115" s="18" t="s">
         <v>650</v>
       </c>
@@ -17419,7 +17419,7 @@
       <c r="N116" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O116" s="77"/>
+      <c r="O116" s="78"/>
       <c r="P116" s="18" t="s">
         <v>654</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="N117" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O117" s="77"/>
+      <c r="O117" s="78"/>
       <c r="P117" s="18" t="s">
         <v>657</v>
       </c>
@@ -17547,7 +17547,7 @@
       <c r="N118" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="O118" s="77"/>
+      <c r="O118" s="78"/>
       <c r="P118" s="18" t="s">
         <v>660</v>
       </c>
@@ -17610,10 +17610,10 @@
       <c r="M119" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N119" s="76" t="s">
+      <c r="N119" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O119" s="77"/>
+      <c r="O119" s="78"/>
       <c r="P119" s="10" t="s">
         <v>668</v>
       </c>
@@ -17688,10 +17688,10 @@
       <c r="M120" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N120" s="76" t="s">
+      <c r="N120" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O120" s="77"/>
+      <c r="O120" s="78"/>
       <c r="P120" s="10" t="s">
         <v>522</v>
       </c>
@@ -17752,10 +17752,10 @@
       <c r="M121" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N121" s="76" t="s">
+      <c r="N121" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O121" s="77"/>
+      <c r="O121" s="78"/>
       <c r="P121" s="10" t="s">
         <v>522</v>
       </c>
@@ -17816,10 +17816,10 @@
       <c r="M122" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N122" s="76" t="s">
+      <c r="N122" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O122" s="77"/>
+      <c r="O122" s="78"/>
       <c r="P122" s="10" t="s">
         <v>522</v>
       </c>
@@ -17880,10 +17880,10 @@
       <c r="M123" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N123" s="76" t="s">
+      <c r="N123" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O123" s="77"/>
+      <c r="O123" s="78"/>
       <c r="P123" s="10" t="s">
         <v>522</v>
       </c>
@@ -17944,10 +17944,10 @@
       <c r="M124" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N124" s="76" t="s">
+      <c r="N124" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O124" s="77"/>
+      <c r="O124" s="78"/>
       <c r="P124" s="10" t="s">
         <v>522</v>
       </c>
@@ -18008,10 +18008,10 @@
       <c r="M125" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N125" s="76" t="s">
+      <c r="N125" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O125" s="77"/>
+      <c r="O125" s="78"/>
       <c r="P125" s="10" t="s">
         <v>522</v>
       </c>
@@ -18072,10 +18072,10 @@
       <c r="M126" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N126" s="76" t="s">
+      <c r="N126" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O126" s="77"/>
+      <c r="O126" s="78"/>
       <c r="P126" s="10" t="s">
         <v>522</v>
       </c>
@@ -18136,10 +18136,10 @@
       <c r="M127" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N127" s="76" t="s">
+      <c r="N127" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O127" s="77"/>
+      <c r="O127" s="78"/>
       <c r="P127" s="10" t="s">
         <v>522</v>
       </c>
@@ -18200,10 +18200,10 @@
       <c r="M128" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N128" s="76" t="s">
+      <c r="N128" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O128" s="77"/>
+      <c r="O128" s="78"/>
       <c r="P128" s="10" t="s">
         <v>522</v>
       </c>
@@ -18264,10 +18264,10 @@
       <c r="M129" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N129" s="76" t="s">
+      <c r="N129" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O129" s="77"/>
+      <c r="O129" s="78"/>
       <c r="P129" s="10" t="s">
         <v>522</v>
       </c>
@@ -18326,10 +18326,10 @@
       <c r="M130" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N130" s="76" t="s">
+      <c r="N130" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O130" s="77"/>
+      <c r="O130" s="78"/>
       <c r="P130" s="20"/>
       <c r="Q130" s="15"/>
       <c r="R130" s="14"/>
@@ -18386,10 +18386,10 @@
       <c r="M131" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N131" s="76" t="s">
+      <c r="N131" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O131" s="77"/>
+      <c r="O131" s="78"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="15"/>
       <c r="R131" s="14"/>
@@ -18446,10 +18446,10 @@
       <c r="M132" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N132" s="76" t="s">
+      <c r="N132" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O132" s="77"/>
+      <c r="O132" s="78"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="15"/>
       <c r="R132" s="14"/>
@@ -18506,10 +18506,10 @@
       <c r="M133" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="N133" s="76" t="s">
+      <c r="N133" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="O133" s="77"/>
+      <c r="O133" s="78"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="15"/>
       <c r="R133" s="14"/>
@@ -19546,10 +19546,10 @@
       <c r="M149" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N149" s="76" t="s">
+      <c r="N149" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O149" s="77"/>
+      <c r="O149" s="78"/>
       <c r="P149" s="10" t="s">
         <v>788</v>
       </c>
@@ -19628,10 +19628,10 @@
       <c r="M150" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N150" s="76" t="s">
+      <c r="N150" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O150" s="77"/>
+      <c r="O150" s="78"/>
       <c r="P150" s="10" t="s">
         <v>799</v>
       </c>
@@ -19692,10 +19692,10 @@
       <c r="M151" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N151" s="76" t="s">
+      <c r="N151" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O151" s="77"/>
+      <c r="O151" s="78"/>
       <c r="P151" s="10" t="s">
         <v>803</v>
       </c>
@@ -19758,10 +19758,10 @@
       <c r="M152" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N152" s="76" t="s">
+      <c r="N152" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O152" s="77"/>
+      <c r="O152" s="78"/>
       <c r="P152" s="10" t="s">
         <v>807</v>
       </c>
@@ -19824,10 +19824,10 @@
       <c r="M153" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N153" s="76" t="s">
+      <c r="N153" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O153" s="77"/>
+      <c r="O153" s="78"/>
       <c r="P153" s="10" t="s">
         <v>811</v>
       </c>
@@ -19888,10 +19888,10 @@
       <c r="M154" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N154" s="76" t="s">
+      <c r="N154" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O154" s="77"/>
+      <c r="O154" s="78"/>
       <c r="P154" s="10" t="s">
         <v>815</v>
       </c>
@@ -19952,10 +19952,10 @@
       <c r="M155" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N155" s="76" t="s">
+      <c r="N155" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O155" s="77"/>
+      <c r="O155" s="78"/>
       <c r="P155" s="10" t="s">
         <v>819</v>
       </c>
@@ -20016,10 +20016,10 @@
       <c r="M156" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N156" s="76" t="s">
+      <c r="N156" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O156" s="77"/>
+      <c r="O156" s="78"/>
       <c r="P156" s="10" t="s">
         <v>823</v>
       </c>
@@ -20080,10 +20080,10 @@
       <c r="M157" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N157" s="76" t="s">
+      <c r="N157" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O157" s="77"/>
+      <c r="O157" s="78"/>
       <c r="P157" s="10" t="s">
         <v>827</v>
       </c>
@@ -20144,10 +20144,10 @@
       <c r="M158" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N158" s="76" t="s">
+      <c r="N158" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O158" s="77"/>
+      <c r="O158" s="78"/>
       <c r="P158" s="10" t="s">
         <v>831</v>
       </c>
@@ -20210,10 +20210,10 @@
       <c r="M159" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N159" s="76" t="s">
+      <c r="N159" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O159" s="77"/>
+      <c r="O159" s="78"/>
       <c r="P159" s="10" t="s">
         <v>835</v>
       </c>
@@ -20272,10 +20272,10 @@
       <c r="M160" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N160" s="76" t="s">
+      <c r="N160" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O160" s="77"/>
+      <c r="O160" s="78"/>
       <c r="P160" s="20"/>
       <c r="Q160" s="15"/>
       <c r="R160" s="14"/>
@@ -20332,10 +20332,10 @@
       <c r="M161" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N161" s="76" t="s">
+      <c r="N161" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O161" s="77"/>
+      <c r="O161" s="78"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="15"/>
       <c r="R161" s="14"/>
@@ -20392,10 +20392,10 @@
       <c r="M162" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N162" s="76" t="s">
+      <c r="N162" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O162" s="77"/>
+      <c r="O162" s="78"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="15"/>
       <c r="R162" s="14"/>
@@ -20452,10 +20452,10 @@
       <c r="M163" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="N163" s="76" t="s">
+      <c r="N163" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O163" s="77"/>
+      <c r="O163" s="78"/>
       <c r="P163" s="10"/>
       <c r="Q163" s="15"/>
       <c r="R163" s="14"/>
@@ -20519,7 +20519,7 @@
       <c r="N164" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O164" s="77"/>
+      <c r="O164" s="78"/>
       <c r="P164" s="18" t="s">
         <v>852</v>
       </c>
@@ -20621,7 +20621,7 @@
       <c r="N165" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O165" s="77"/>
+      <c r="O165" s="78"/>
       <c r="P165" s="18" t="s">
         <v>869</v>
       </c>
@@ -20685,7 +20685,7 @@
       <c r="N166" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O166" s="77"/>
+      <c r="O166" s="78"/>
       <c r="P166" s="18" t="s">
         <v>873</v>
       </c>
@@ -20749,7 +20749,7 @@
       <c r="N167" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O167" s="77"/>
+      <c r="O167" s="78"/>
       <c r="P167" s="18" t="s">
         <v>877</v>
       </c>
@@ -20813,7 +20813,7 @@
       <c r="N168" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O168" s="77"/>
+      <c r="O168" s="78"/>
       <c r="P168" s="18" t="s">
         <v>881</v>
       </c>
@@ -20877,7 +20877,7 @@
       <c r="N169" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O169" s="77"/>
+      <c r="O169" s="78"/>
       <c r="P169" s="18" t="s">
         <v>885</v>
       </c>
@@ -20941,7 +20941,7 @@
       <c r="N170" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O170" s="77"/>
+      <c r="O170" s="78"/>
       <c r="P170" s="18" t="s">
         <v>889</v>
       </c>
@@ -21005,7 +21005,7 @@
       <c r="N171" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O171" s="77"/>
+      <c r="O171" s="78"/>
       <c r="P171" s="18" t="s">
         <v>893</v>
       </c>
@@ -21067,7 +21067,7 @@
       <c r="N172" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O172" s="77"/>
+      <c r="O172" s="78"/>
       <c r="P172" s="22"/>
       <c r="Q172" s="15"/>
       <c r="R172" s="15"/>
@@ -21129,7 +21129,7 @@
       <c r="N173" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O173" s="77"/>
+      <c r="O173" s="78"/>
       <c r="P173" s="18" t="s">
         <v>899</v>
       </c>
@@ -21191,7 +21191,7 @@
       <c r="N174" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O174" s="77"/>
+      <c r="O174" s="78"/>
       <c r="P174" s="22"/>
       <c r="Q174" s="15"/>
       <c r="R174" s="15"/>
@@ -21251,7 +21251,7 @@
       <c r="N175" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O175" s="77"/>
+      <c r="O175" s="78"/>
       <c r="P175" s="18"/>
       <c r="Q175" s="15"/>
       <c r="R175" s="15"/>
@@ -21311,7 +21311,7 @@
       <c r="N176" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O176" s="77"/>
+      <c r="O176" s="78"/>
       <c r="P176" s="18"/>
       <c r="Q176" s="15"/>
       <c r="R176" s="15"/>
@@ -21371,7 +21371,7 @@
       <c r="N177" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O177" s="77"/>
+      <c r="O177" s="78"/>
       <c r="P177" s="18"/>
       <c r="Q177" s="15"/>
       <c r="R177" s="15"/>
@@ -21431,7 +21431,7 @@
       <c r="N178" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O178" s="77"/>
+      <c r="O178" s="78"/>
       <c r="P178" s="18"/>
       <c r="Q178" s="15"/>
       <c r="R178" s="15"/>
@@ -21492,10 +21492,10 @@
       <c r="M179" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="N179" s="76" t="s">
+      <c r="N179" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="O179" s="77"/>
+      <c r="O179" s="78"/>
       <c r="P179" s="10" t="s">
         <v>917</v>
       </c>
@@ -21598,10 +21598,10 @@
       <c r="M180" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="N180" s="76" t="s">
+      <c r="N180" s="77" t="s">
         <v>927</v>
       </c>
-      <c r="O180" s="77"/>
+      <c r="O180" s="78"/>
       <c r="P180" s="10" t="s">
         <v>933</v>
       </c>
@@ -21728,10 +21728,10 @@
       <c r="M182" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="N182" s="76" t="s">
+      <c r="N182" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="O182" s="77"/>
+      <c r="O182" s="78"/>
       <c r="P182" s="10" t="s">
         <v>11</v>
       </c>
@@ -21792,10 +21792,10 @@
       <c r="M183" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="N183" s="76" t="s">
+      <c r="N183" s="77" t="s">
         <v>925</v>
       </c>
-      <c r="O183" s="77"/>
+      <c r="O183" s="78"/>
       <c r="P183" s="10" t="s">
         <v>945</v>
       </c>
@@ -22048,10 +22048,10 @@
       <c r="M187" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="N187" s="76" t="s">
+      <c r="N187" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="O187" s="77"/>
+      <c r="O187" s="78"/>
       <c r="P187" s="10" t="s">
         <v>967</v>
       </c>
@@ -22112,10 +22112,10 @@
       <c r="M188" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="N188" s="76" t="s">
+      <c r="N188" s="77" t="s">
         <v>972</v>
       </c>
-      <c r="O188" s="77"/>
+      <c r="O188" s="78"/>
       <c r="P188" s="10" t="s">
         <v>973</v>
       </c>
@@ -22176,10 +22176,10 @@
       <c r="M189" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="N189" s="76" t="s">
+      <c r="N189" s="77" t="s">
         <v>978</v>
       </c>
-      <c r="O189" s="77"/>
+      <c r="O189" s="78"/>
       <c r="P189" s="10" t="s">
         <v>979</v>
       </c>
@@ -22304,10 +22304,10 @@
       <c r="M191" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="N191" s="76" t="s">
+      <c r="N191" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O191" s="77"/>
+      <c r="O191" s="78"/>
       <c r="P191" s="10" t="s">
         <v>990</v>
       </c>
@@ -22368,10 +22368,10 @@
       <c r="M192" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N192" s="76" t="s">
+      <c r="N192" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O192" s="77"/>
+      <c r="O192" s="78"/>
       <c r="P192" s="10" t="s">
         <v>994</v>
       </c>
@@ -22432,10 +22432,10 @@
       <c r="M193" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="N193" s="76" t="s">
+      <c r="N193" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="O193" s="77"/>
+      <c r="O193" s="78"/>
       <c r="P193" s="10" t="s">
         <v>998</v>
       </c>
@@ -22501,7 +22501,7 @@
       <c r="N194" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O194" s="77"/>
+      <c r="O194" s="78"/>
       <c r="P194" s="18" t="s">
         <v>1007</v>
       </c>
@@ -22583,7 +22583,7 @@
       <c r="N195" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O195" s="77"/>
+      <c r="O195" s="78"/>
       <c r="P195" s="18" t="s">
         <v>1018</v>
       </c>
@@ -22647,7 +22647,7 @@
       <c r="N196" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O196" s="77"/>
+      <c r="O196" s="78"/>
       <c r="P196" s="18" t="s">
         <v>1023</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="N197" s="79" t="s">
         <v>1028</v>
       </c>
-      <c r="O197" s="77"/>
+      <c r="O197" s="78"/>
       <c r="P197" s="18" t="s">
         <v>1029</v>
       </c>
@@ -22839,7 +22839,7 @@
       <c r="N199" s="79" t="s">
         <v>1039</v>
       </c>
-      <c r="O199" s="77"/>
+      <c r="O199" s="78"/>
       <c r="P199" s="18" t="s">
         <v>1040</v>
       </c>
@@ -22901,7 +22901,7 @@
       <c r="N200" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O200" s="77"/>
+      <c r="O200" s="78"/>
       <c r="P200" s="22"/>
       <c r="Q200" s="15"/>
       <c r="R200" s="15"/>
@@ -22961,7 +22961,7 @@
       <c r="N201" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O201" s="77"/>
+      <c r="O201" s="78"/>
       <c r="P201" s="18"/>
       <c r="Q201" s="15"/>
       <c r="R201" s="15"/>
@@ -23021,7 +23021,7 @@
       <c r="N202" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O202" s="77"/>
+      <c r="O202" s="78"/>
       <c r="P202" s="18"/>
       <c r="Q202" s="15"/>
       <c r="R202" s="15"/>
@@ -23081,7 +23081,7 @@
       <c r="N203" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O203" s="77"/>
+      <c r="O203" s="78"/>
       <c r="P203" s="18"/>
       <c r="Q203" s="15"/>
       <c r="R203" s="15"/>
@@ -23141,7 +23141,7 @@
       <c r="N204" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O204" s="77"/>
+      <c r="O204" s="78"/>
       <c r="P204" s="18"/>
       <c r="Q204" s="15"/>
       <c r="R204" s="15"/>
@@ -23201,7 +23201,7 @@
       <c r="N205" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O205" s="77"/>
+      <c r="O205" s="78"/>
       <c r="P205" s="18"/>
       <c r="Q205" s="15"/>
       <c r="R205" s="15"/>
@@ -23261,7 +23261,7 @@
       <c r="N206" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O206" s="77"/>
+      <c r="O206" s="78"/>
       <c r="P206" s="18"/>
       <c r="Q206" s="15"/>
       <c r="R206" s="15"/>
@@ -23321,7 +23321,7 @@
       <c r="N207" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O207" s="77"/>
+      <c r="O207" s="78"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="15"/>
       <c r="R207" s="15"/>
@@ -23381,7 +23381,7 @@
       <c r="N208" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="O208" s="77"/>
+      <c r="O208" s="78"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="15"/>
       <c r="R208" s="15"/>
@@ -23442,10 +23442,10 @@
       <c r="M209" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N209" s="76" t="s">
+      <c r="N209" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O209" s="77"/>
+      <c r="O209" s="78"/>
       <c r="P209" s="10" t="s">
         <v>1067</v>
       </c>
@@ -23528,10 +23528,10 @@
       <c r="M210" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N210" s="76" t="s">
+      <c r="N210" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O210" s="77"/>
+      <c r="O210" s="78"/>
       <c r="P210" s="10" t="s">
         <v>1080</v>
       </c>
@@ -23592,10 +23592,10 @@
       <c r="M211" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N211" s="76" t="s">
+      <c r="N211" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O211" s="77"/>
+      <c r="O211" s="78"/>
       <c r="P211" s="10" t="s">
         <v>1084</v>
       </c>
@@ -23656,10 +23656,10 @@
       <c r="M212" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N212" s="76" t="s">
+      <c r="N212" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O212" s="77"/>
+      <c r="O212" s="78"/>
       <c r="P212" s="10" t="s">
         <v>1088</v>
       </c>
@@ -23720,10 +23720,10 @@
       <c r="M213" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N213" s="76" t="s">
+      <c r="N213" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O213" s="77"/>
+      <c r="O213" s="78"/>
       <c r="P213" s="10" t="s">
         <v>1092</v>
       </c>
@@ -23784,10 +23784,10 @@
       <c r="M214" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N214" s="76" t="s">
+      <c r="N214" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O214" s="77"/>
+      <c r="O214" s="78"/>
       <c r="P214" s="10" t="s">
         <v>1096</v>
       </c>
@@ -23848,10 +23848,10 @@
       <c r="M215" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N215" s="76" t="s">
+      <c r="N215" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O215" s="77"/>
+      <c r="O215" s="78"/>
       <c r="P215" s="10" t="s">
         <v>1100</v>
       </c>
@@ -23912,10 +23912,10 @@
       <c r="M216" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N216" s="76" t="s">
+      <c r="N216" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O216" s="77"/>
+      <c r="O216" s="78"/>
       <c r="P216" s="10" t="s">
         <v>1104</v>
       </c>
@@ -23976,10 +23976,10 @@
       <c r="M217" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N217" s="76" t="s">
+      <c r="N217" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O217" s="77"/>
+      <c r="O217" s="78"/>
       <c r="P217" s="10" t="s">
         <v>1096</v>
       </c>
@@ -24040,10 +24040,10 @@
       <c r="M218" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N218" s="76" t="s">
+      <c r="N218" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O218" s="77"/>
+      <c r="O218" s="78"/>
       <c r="P218" s="10" t="s">
         <v>1111</v>
       </c>
@@ -24104,10 +24104,10 @@
       <c r="M219" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N219" s="76" t="s">
+      <c r="N219" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O219" s="77"/>
+      <c r="O219" s="78"/>
       <c r="P219" s="10" t="s">
         <v>1115</v>
       </c>
@@ -24168,10 +24168,10 @@
       <c r="M220" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="N220" s="76" t="s">
+      <c r="N220" s="77" t="s">
         <v>1066</v>
       </c>
-      <c r="O220" s="77"/>
+      <c r="O220" s="78"/>
       <c r="P220" s="10" t="s">
         <v>1119</v>
       </c>
@@ -24314,10 +24314,10 @@
       <c r="M222" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N222" s="78" t="s">
+      <c r="N222" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O222" s="77"/>
+      <c r="O222" s="78"/>
       <c r="P222" s="26"/>
       <c r="Q222" s="12"/>
       <c r="R222" s="27" t="s">
@@ -24408,10 +24408,10 @@
       <c r="M223" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N223" s="78" t="s">
+      <c r="N223" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O223" s="77"/>
+      <c r="O223" s="78"/>
       <c r="P223" s="26"/>
       <c r="Q223" s="15"/>
       <c r="R223" s="28"/>
@@ -24468,10 +24468,10 @@
       <c r="M224" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N224" s="78" t="s">
+      <c r="N224" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O224" s="77"/>
+      <c r="O224" s="78"/>
       <c r="P224" s="26"/>
       <c r="Q224" s="15"/>
       <c r="R224" s="28"/>
@@ -24528,10 +24528,10 @@
       <c r="M225" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N225" s="78" t="s">
+      <c r="N225" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O225" s="77"/>
+      <c r="O225" s="78"/>
       <c r="P225" s="26"/>
       <c r="Q225" s="15"/>
       <c r="R225" s="28"/>
@@ -24588,10 +24588,10 @@
       <c r="M226" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N226" s="78" t="s">
+      <c r="N226" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O226" s="77"/>
+      <c r="O226" s="78"/>
       <c r="P226" s="26"/>
       <c r="Q226" s="15"/>
       <c r="R226" s="28"/>
@@ -24648,10 +24648,10 @@
       <c r="M227" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N227" s="78" t="s">
+      <c r="N227" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O227" s="77"/>
+      <c r="O227" s="78"/>
       <c r="P227" s="26"/>
       <c r="Q227" s="15"/>
       <c r="R227" s="28"/>
@@ -24708,10 +24708,10 @@
       <c r="M228" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N228" s="78" t="s">
+      <c r="N228" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O228" s="77"/>
+      <c r="O228" s="78"/>
       <c r="P228" s="26"/>
       <c r="Q228" s="15"/>
       <c r="R228" s="28"/>
@@ -24768,10 +24768,10 @@
       <c r="M229" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N229" s="78" t="s">
+      <c r="N229" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O229" s="77"/>
+      <c r="O229" s="78"/>
       <c r="P229" s="26"/>
       <c r="Q229" s="15"/>
       <c r="R229" s="28"/>
@@ -24828,10 +24828,10 @@
       <c r="M230" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N230" s="78" t="s">
+      <c r="N230" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O230" s="77"/>
+      <c r="O230" s="78"/>
       <c r="P230" s="26"/>
       <c r="Q230" s="15"/>
       <c r="R230" s="28"/>
@@ -24888,10 +24888,10 @@
       <c r="M231" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N231" s="78" t="s">
+      <c r="N231" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O231" s="77"/>
+      <c r="O231" s="78"/>
       <c r="P231" s="26"/>
       <c r="Q231" s="15"/>
       <c r="R231" s="28"/>
@@ -24948,10 +24948,10 @@
       <c r="M232" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N232" s="78" t="s">
+      <c r="N232" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O232" s="77"/>
+      <c r="O232" s="78"/>
       <c r="P232" s="26"/>
       <c r="Q232" s="15"/>
       <c r="R232" s="28"/>
@@ -25008,10 +25008,10 @@
       <c r="M233" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N233" s="78" t="s">
+      <c r="N233" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O233" s="77"/>
+      <c r="O233" s="78"/>
       <c r="P233" s="26"/>
       <c r="Q233" s="15"/>
       <c r="R233" s="28"/>
@@ -25068,10 +25068,10 @@
       <c r="M234" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N234" s="78" t="s">
+      <c r="N234" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O234" s="77"/>
+      <c r="O234" s="78"/>
       <c r="P234" s="26"/>
       <c r="Q234" s="15"/>
       <c r="R234" s="28"/>
@@ -25128,10 +25128,10 @@
       <c r="M235" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N235" s="78" t="s">
+      <c r="N235" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O235" s="77"/>
+      <c r="O235" s="78"/>
       <c r="P235" s="26"/>
       <c r="Q235" s="15"/>
       <c r="R235" s="28"/>
@@ -25188,10 +25188,10 @@
       <c r="M236" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="N236" s="78" t="s">
+      <c r="N236" s="80" t="s">
         <v>1139</v>
       </c>
-      <c r="O236" s="77"/>
+      <c r="O236" s="78"/>
       <c r="P236" s="26"/>
       <c r="Q236" s="15"/>
       <c r="R236" s="28"/>
@@ -25255,7 +25255,7 @@
       <c r="N237" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="O237" s="77"/>
+      <c r="O237" s="78"/>
       <c r="P237" s="18" t="s">
         <v>1190</v>
       </c>
@@ -25485,7 +25485,7 @@
       <c r="N240" s="79" t="s">
         <v>1215</v>
       </c>
-      <c r="O240" s="77"/>
+      <c r="O240" s="78"/>
       <c r="P240" s="18" t="s">
         <v>1216</v>
       </c>
@@ -25549,7 +25549,7 @@
       <c r="N241" s="79" t="s">
         <v>1196</v>
       </c>
-      <c r="O241" s="77"/>
+      <c r="O241" s="78"/>
       <c r="P241" s="18" t="s">
         <v>1219</v>
       </c>
@@ -25677,7 +25677,7 @@
       <c r="N243" s="79" t="s">
         <v>1196</v>
       </c>
-      <c r="O243" s="77"/>
+      <c r="O243" s="78"/>
       <c r="P243" s="18" t="s">
         <v>1229</v>
       </c>
@@ -25741,7 +25741,7 @@
       <c r="N244" s="79" t="s">
         <v>1234</v>
       </c>
-      <c r="O244" s="77"/>
+      <c r="O244" s="78"/>
       <c r="P244" s="18" t="s">
         <v>1235</v>
       </c>
@@ -25805,7 +25805,7 @@
       <c r="N245" s="79" t="s">
         <v>1240</v>
       </c>
-      <c r="O245" s="77"/>
+      <c r="O245" s="78"/>
       <c r="P245" s="18" t="s">
         <v>1238</v>
       </c>
@@ -25869,7 +25869,7 @@
       <c r="N246" s="79" t="s">
         <v>1245</v>
       </c>
-      <c r="O246" s="77"/>
+      <c r="O246" s="78"/>
       <c r="P246" s="18" t="s">
         <v>1243</v>
       </c>
@@ -25933,7 +25933,7 @@
       <c r="N247" s="79" t="s">
         <v>1250</v>
       </c>
-      <c r="O247" s="77"/>
+      <c r="O247" s="78"/>
       <c r="P247" s="18" t="s">
         <v>1248</v>
       </c>
@@ -25997,7 +25997,7 @@
       <c r="N248" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="O248" s="77"/>
+      <c r="O248" s="78"/>
       <c r="P248" s="18" t="s">
         <v>1190</v>
       </c>
@@ -26059,7 +26059,7 @@
       <c r="N249" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="O249" s="77"/>
+      <c r="O249" s="78"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="15"/>
       <c r="R249" s="15"/>
@@ -26119,7 +26119,7 @@
       <c r="N250" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="O250" s="77"/>
+      <c r="O250" s="78"/>
       <c r="P250" s="18"/>
       <c r="Q250" s="15"/>
       <c r="R250" s="15"/>
@@ -26179,7 +26179,7 @@
       <c r="N251" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="O251" s="77"/>
+      <c r="O251" s="78"/>
       <c r="P251" s="18"/>
       <c r="Q251" s="15"/>
       <c r="R251" s="15"/>
@@ -26324,10 +26324,10 @@
       <c r="M253" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="N253" s="76" t="s">
+      <c r="N253" s="77" t="s">
         <v>1270</v>
       </c>
-      <c r="O253" s="77"/>
+      <c r="O253" s="78"/>
       <c r="P253" s="10" t="s">
         <v>1279</v>
       </c>
@@ -26388,10 +26388,10 @@
       <c r="M254" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="N254" s="76" t="s">
+      <c r="N254" s="77" t="s">
         <v>1274</v>
       </c>
-      <c r="O254" s="77"/>
+      <c r="O254" s="78"/>
       <c r="P254" s="10" t="s">
         <v>1283</v>
       </c>
@@ -26452,10 +26452,10 @@
       <c r="M255" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="N255" s="76" t="s">
+      <c r="N255" s="77" t="s">
         <v>1272</v>
       </c>
-      <c r="O255" s="77"/>
+      <c r="O255" s="78"/>
       <c r="P255" s="10" t="s">
         <v>1279</v>
       </c>
@@ -26516,10 +26516,10 @@
       <c r="M256" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="N256" s="76" t="s">
+      <c r="N256" s="77" t="s">
         <v>1291</v>
       </c>
-      <c r="O256" s="77"/>
+      <c r="O256" s="78"/>
       <c r="P256" s="10" t="s">
         <v>1292</v>
       </c>
@@ -26580,10 +26580,10 @@
       <c r="M257" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="N257" s="76" t="s">
+      <c r="N257" s="77" t="s">
         <v>1297</v>
       </c>
-      <c r="O257" s="77"/>
+      <c r="O257" s="78"/>
       <c r="P257" s="10" t="s">
         <v>1298</v>
       </c>
@@ -26644,10 +26644,10 @@
       <c r="M258" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="N258" s="76" t="s">
+      <c r="N258" s="77" t="s">
         <v>1274</v>
       </c>
-      <c r="O258" s="77"/>
+      <c r="O258" s="78"/>
       <c r="P258" s="10" t="s">
         <v>1303</v>
       </c>
@@ -26710,10 +26710,10 @@
       <c r="M259" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="N259" s="76" t="s">
+      <c r="N259" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O259" s="77"/>
+      <c r="O259" s="78"/>
       <c r="P259" s="10" t="s">
         <v>1309</v>
       </c>
@@ -26776,10 +26776,10 @@
       <c r="M260" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="N260" s="76" t="s">
+      <c r="N260" s="77" t="s">
         <v>1314</v>
       </c>
-      <c r="O260" s="77"/>
+      <c r="O260" s="78"/>
       <c r="P260" s="10" t="s">
         <v>1315</v>
       </c>
@@ -26842,10 +26842,10 @@
       <c r="M261" s="8" t="s">
         <v>1319</v>
       </c>
-      <c r="N261" s="76" t="s">
+      <c r="N261" s="77" t="s">
         <v>1274</v>
       </c>
-      <c r="O261" s="77"/>
+      <c r="O261" s="78"/>
       <c r="P261" s="10" t="s">
         <v>1320</v>
       </c>
@@ -26970,10 +26970,10 @@
       <c r="M263" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="N263" s="76" t="s">
+      <c r="N263" s="77" t="s">
         <v>1331</v>
       </c>
-      <c r="O263" s="77"/>
+      <c r="O263" s="78"/>
       <c r="P263" s="10" t="s">
         <v>1332</v>
       </c>
@@ -27098,10 +27098,10 @@
       <c r="M265" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="N265" s="76" t="s">
+      <c r="N265" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="O265" s="77"/>
+      <c r="O265" s="78"/>
       <c r="P265" s="10" t="s">
         <v>1341</v>
       </c>
@@ -27167,7 +27167,7 @@
       <c r="N266" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O266" s="77"/>
+      <c r="O266" s="78"/>
       <c r="P266" s="18" t="s">
         <v>1347</v>
       </c>
@@ -27257,7 +27257,7 @@
       <c r="N267" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O267" s="77"/>
+      <c r="O267" s="78"/>
       <c r="P267" s="18" t="s">
         <v>1361</v>
       </c>
@@ -27321,7 +27321,7 @@
       <c r="N268" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O268" s="77"/>
+      <c r="O268" s="78"/>
       <c r="P268" s="18" t="s">
         <v>1365</v>
       </c>
@@ -27385,7 +27385,7 @@
       <c r="N269" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O269" s="77"/>
+      <c r="O269" s="78"/>
       <c r="P269" s="18" t="s">
         <v>1369</v>
       </c>
@@ -27449,7 +27449,7 @@
       <c r="N270" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O270" s="77"/>
+      <c r="O270" s="78"/>
       <c r="P270" s="18" t="s">
         <v>1373</v>
       </c>
@@ -27513,7 +27513,7 @@
       <c r="N271" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O271" s="77"/>
+      <c r="O271" s="78"/>
       <c r="P271" s="18" t="s">
         <v>1377</v>
       </c>
@@ -27577,7 +27577,7 @@
       <c r="N272" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O272" s="77"/>
+      <c r="O272" s="78"/>
       <c r="P272" s="18" t="s">
         <v>1381</v>
       </c>
@@ -27641,7 +27641,7 @@
       <c r="N273" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O273" s="77"/>
+      <c r="O273" s="78"/>
       <c r="P273" s="18" t="s">
         <v>1385</v>
       </c>
@@ -27705,7 +27705,7 @@
       <c r="N274" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O274" s="77"/>
+      <c r="O274" s="78"/>
       <c r="P274" s="18" t="s">
         <v>1389</v>
       </c>
@@ -27769,7 +27769,7 @@
       <c r="N275" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O275" s="77"/>
+      <c r="O275" s="78"/>
       <c r="P275" s="18" t="s">
         <v>1393</v>
       </c>
@@ -27833,7 +27833,7 @@
       <c r="N276" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O276" s="77"/>
+      <c r="O276" s="78"/>
       <c r="P276" s="18" t="s">
         <v>1397</v>
       </c>
@@ -27897,7 +27897,7 @@
       <c r="N277" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O277" s="77"/>
+      <c r="O277" s="78"/>
       <c r="P277" s="18" t="s">
         <v>1401</v>
       </c>
@@ -27961,7 +27961,7 @@
       <c r="N278" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O278" s="77"/>
+      <c r="O278" s="78"/>
       <c r="P278" s="18" t="s">
         <v>1405</v>
       </c>
@@ -28025,7 +28025,7 @@
       <c r="N279" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O279" s="77"/>
+      <c r="O279" s="78"/>
       <c r="P279" s="18" t="s">
         <v>1409</v>
       </c>
@@ -28089,7 +28089,7 @@
       <c r="N280" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O280" s="77"/>
+      <c r="O280" s="78"/>
       <c r="P280" s="18" t="s">
         <v>1413</v>
       </c>
@@ -28153,7 +28153,7 @@
       <c r="N281" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O281" s="77"/>
+      <c r="O281" s="78"/>
       <c r="P281" s="18" t="s">
         <v>1417</v>
       </c>
@@ -28217,7 +28217,7 @@
       <c r="N282" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O282" s="77"/>
+      <c r="O282" s="78"/>
       <c r="P282" s="18" t="s">
         <v>1421</v>
       </c>
@@ -28281,7 +28281,7 @@
       <c r="N283" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="O283" s="77"/>
+      <c r="O283" s="78"/>
       <c r="P283" s="18" t="s">
         <v>1426</v>
       </c>
@@ -29321,7 +29321,7 @@
       <c r="N299" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O299" s="77"/>
+      <c r="O299" s="78"/>
       <c r="P299" s="18" t="s">
         <v>1488</v>
       </c>
@@ -29407,7 +29407,7 @@
       <c r="N300" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O300" s="77"/>
+      <c r="O300" s="78"/>
       <c r="P300" s="18" t="s">
         <v>1498</v>
       </c>
@@ -29471,7 +29471,7 @@
       <c r="N301" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O301" s="77"/>
+      <c r="O301" s="78"/>
       <c r="P301" s="18" t="s">
         <v>1502</v>
       </c>
@@ -29537,7 +29537,7 @@
       <c r="N302" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O302" s="77"/>
+      <c r="O302" s="78"/>
       <c r="P302" s="18" t="s">
         <v>1506</v>
       </c>
@@ -29601,7 +29601,7 @@
       <c r="N303" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O303" s="77"/>
+      <c r="O303" s="78"/>
       <c r="P303" s="18" t="s">
         <v>1510</v>
       </c>
@@ -29665,7 +29665,7 @@
       <c r="N304" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O304" s="77"/>
+      <c r="O304" s="78"/>
       <c r="P304" s="18" t="s">
         <v>1514</v>
       </c>
@@ -29729,7 +29729,7 @@
       <c r="N305" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O305" s="77"/>
+      <c r="O305" s="78"/>
       <c r="P305" s="18" t="s">
         <v>1518</v>
       </c>
@@ -29793,7 +29793,7 @@
       <c r="N306" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O306" s="77"/>
+      <c r="O306" s="78"/>
       <c r="P306" s="18" t="s">
         <v>1522</v>
       </c>
@@ -29857,7 +29857,7 @@
       <c r="N307" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O307" s="77"/>
+      <c r="O307" s="78"/>
       <c r="P307" s="18" t="s">
         <v>1526</v>
       </c>
@@ -29923,7 +29923,7 @@
       <c r="N308" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O308" s="77"/>
+      <c r="O308" s="78"/>
       <c r="P308" s="18" t="s">
         <v>1481</v>
       </c>
@@ -29985,7 +29985,7 @@
       <c r="N309" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O309" s="77"/>
+      <c r="O309" s="78"/>
       <c r="P309" s="22"/>
       <c r="Q309" s="15"/>
       <c r="R309" s="15"/>
@@ -30045,7 +30045,7 @@
       <c r="N310" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O310" s="77"/>
+      <c r="O310" s="78"/>
       <c r="P310" s="18"/>
       <c r="Q310" s="15"/>
       <c r="R310" s="15"/>
@@ -30105,7 +30105,7 @@
       <c r="N311" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O311" s="77"/>
+      <c r="O311" s="78"/>
       <c r="P311" s="18"/>
       <c r="Q311" s="15"/>
       <c r="R311" s="15"/>
@@ -30165,7 +30165,7 @@
       <c r="N312" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O312" s="77"/>
+      <c r="O312" s="78"/>
       <c r="P312" s="18"/>
       <c r="Q312" s="15"/>
       <c r="R312" s="15"/>
@@ -30225,7 +30225,7 @@
       <c r="N313" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="O313" s="77"/>
+      <c r="O313" s="78"/>
       <c r="P313" s="18"/>
       <c r="Q313" s="15"/>
       <c r="R313" s="15"/>
@@ -31243,7 +31243,7 @@
       <c r="N329" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O329" s="77"/>
+      <c r="O329" s="78"/>
       <c r="P329" s="18"/>
       <c r="Q329" s="12"/>
       <c r="R329" s="12" t="s">
@@ -31315,7 +31315,7 @@
       <c r="N330" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O330" s="77"/>
+      <c r="O330" s="78"/>
       <c r="P330" s="18"/>
       <c r="Q330" s="15"/>
       <c r="R330" s="15"/>
@@ -31377,7 +31377,7 @@
       <c r="N331" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O331" s="77"/>
+      <c r="O331" s="78"/>
       <c r="P331" s="18"/>
       <c r="Q331" s="15"/>
       <c r="R331" s="15"/>
@@ -31439,7 +31439,7 @@
       <c r="N332" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O332" s="77"/>
+      <c r="O332" s="78"/>
       <c r="P332" s="18"/>
       <c r="Q332" s="15"/>
       <c r="R332" s="15"/>
@@ -31501,7 +31501,7 @@
       <c r="N333" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O333" s="77"/>
+      <c r="O333" s="78"/>
       <c r="P333" s="18"/>
       <c r="Q333" s="15"/>
       <c r="R333" s="15"/>
@@ -31563,7 +31563,7 @@
       <c r="N334" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O334" s="77"/>
+      <c r="O334" s="78"/>
       <c r="P334" s="18"/>
       <c r="Q334" s="15"/>
       <c r="R334" s="15"/>
@@ -31625,7 +31625,7 @@
       <c r="N335" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O335" s="77"/>
+      <c r="O335" s="78"/>
       <c r="P335" s="18"/>
       <c r="Q335" s="15"/>
       <c r="R335" s="15"/>
@@ -31687,7 +31687,7 @@
       <c r="N336" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O336" s="77"/>
+      <c r="O336" s="78"/>
       <c r="P336" s="18"/>
       <c r="Q336" s="15"/>
       <c r="R336" s="15"/>
@@ -31749,7 +31749,7 @@
       <c r="N337" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O337" s="77"/>
+      <c r="O337" s="78"/>
       <c r="P337" s="18"/>
       <c r="Q337" s="15"/>
       <c r="R337" s="15"/>
@@ -31811,7 +31811,7 @@
       <c r="N338" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O338" s="77"/>
+      <c r="O338" s="78"/>
       <c r="P338" s="18"/>
       <c r="Q338" s="15"/>
       <c r="R338" s="15"/>
@@ -31873,7 +31873,7 @@
       <c r="N339" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O339" s="77"/>
+      <c r="O339" s="78"/>
       <c r="P339" s="18"/>
       <c r="Q339" s="15"/>
       <c r="R339" s="15"/>
@@ -31935,7 +31935,7 @@
       <c r="N340" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O340" s="77"/>
+      <c r="O340" s="78"/>
       <c r="P340" s="18"/>
       <c r="Q340" s="15"/>
       <c r="R340" s="15"/>
@@ -31997,7 +31997,7 @@
       <c r="N341" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O341" s="77"/>
+      <c r="O341" s="78"/>
       <c r="P341" s="18"/>
       <c r="Q341" s="15"/>
       <c r="R341" s="15"/>
@@ -32057,7 +32057,7 @@
       <c r="N342" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O342" s="77"/>
+      <c r="O342" s="78"/>
       <c r="P342" s="18"/>
       <c r="Q342" s="15"/>
       <c r="R342" s="15"/>
@@ -32117,7 +32117,7 @@
       <c r="N343" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="O343" s="77"/>
+      <c r="O343" s="78"/>
       <c r="P343" s="18"/>
       <c r="Q343" s="15"/>
       <c r="R343" s="15"/>
@@ -33153,7 +33153,7 @@
       <c r="N359" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O359" s="77"/>
+      <c r="O359" s="78"/>
       <c r="P359" s="18"/>
       <c r="Q359" s="12"/>
       <c r="R359" s="12" t="s">
@@ -33241,7 +33241,7 @@
       <c r="N360" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O360" s="77"/>
+      <c r="O360" s="78"/>
       <c r="P360" s="18"/>
       <c r="Q360" s="15"/>
       <c r="R360" s="15"/>
@@ -33303,7 +33303,7 @@
       <c r="N361" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O361" s="77"/>
+      <c r="O361" s="78"/>
       <c r="P361" s="18"/>
       <c r="Q361" s="15"/>
       <c r="R361" s="15"/>
@@ -33365,7 +33365,7 @@
       <c r="N362" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O362" s="77"/>
+      <c r="O362" s="78"/>
       <c r="P362" s="18"/>
       <c r="Q362" s="15"/>
       <c r="R362" s="15"/>
@@ -33427,7 +33427,7 @@
       <c r="N363" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O363" s="77"/>
+      <c r="O363" s="78"/>
       <c r="P363" s="18"/>
       <c r="Q363" s="15"/>
       <c r="R363" s="15"/>
@@ -33489,7 +33489,7 @@
       <c r="N364" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O364" s="77"/>
+      <c r="O364" s="78"/>
       <c r="P364" s="18"/>
       <c r="Q364" s="15"/>
       <c r="R364" s="15"/>
@@ -33551,7 +33551,7 @@
       <c r="N365" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O365" s="77"/>
+      <c r="O365" s="78"/>
       <c r="P365" s="18"/>
       <c r="Q365" s="15"/>
       <c r="R365" s="15"/>
@@ -33613,7 +33613,7 @@
       <c r="N366" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O366" s="77"/>
+      <c r="O366" s="78"/>
       <c r="P366" s="18"/>
       <c r="Q366" s="15"/>
       <c r="R366" s="15"/>
@@ -33675,7 +33675,7 @@
       <c r="N367" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O367" s="77"/>
+      <c r="O367" s="78"/>
       <c r="P367" s="18"/>
       <c r="Q367" s="15"/>
       <c r="R367" s="15"/>
@@ -33737,7 +33737,7 @@
       <c r="N368" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O368" s="77"/>
+      <c r="O368" s="78"/>
       <c r="P368" s="18"/>
       <c r="Q368" s="15"/>
       <c r="R368" s="15"/>
@@ -33799,7 +33799,7 @@
       <c r="N369" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O369" s="77"/>
+      <c r="O369" s="78"/>
       <c r="P369" s="18"/>
       <c r="Q369" s="15"/>
       <c r="R369" s="15"/>
@@ -33861,7 +33861,7 @@
       <c r="N370" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O370" s="77"/>
+      <c r="O370" s="78"/>
       <c r="P370" s="18"/>
       <c r="Q370" s="15"/>
       <c r="R370" s="15"/>
@@ -33923,7 +33923,7 @@
       <c r="N371" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O371" s="77"/>
+      <c r="O371" s="78"/>
       <c r="P371" s="18"/>
       <c r="Q371" s="15"/>
       <c r="R371" s="15"/>
@@ -33985,7 +33985,7 @@
       <c r="N372" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O372" s="77"/>
+      <c r="O372" s="78"/>
       <c r="P372" s="18"/>
       <c r="Q372" s="15"/>
       <c r="R372" s="15"/>
@@ -34047,7 +34047,7 @@
       <c r="N373" s="79" t="s">
         <v>1705</v>
       </c>
-      <c r="O373" s="77"/>
+      <c r="O373" s="78"/>
       <c r="P373" s="18"/>
       <c r="Q373" s="15"/>
       <c r="R373" s="15"/>
@@ -35879,7 +35879,7 @@
       <c r="N402" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="O402" s="77"/>
+      <c r="O402" s="78"/>
       <c r="P402" s="18" t="s">
         <v>1859</v>
       </c>
@@ -35965,7 +35965,7 @@
       <c r="N403" s="79" t="s">
         <v>1872</v>
       </c>
-      <c r="O403" s="77"/>
+      <c r="O403" s="78"/>
       <c r="P403" s="18" t="s">
         <v>1873</v>
       </c>
@@ -36029,7 +36029,7 @@
       <c r="N404" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="O404" s="77"/>
+      <c r="O404" s="78"/>
       <c r="P404" s="18" t="s">
         <v>1878</v>
       </c>
@@ -36093,7 +36093,7 @@
       <c r="N405" s="79" t="s">
         <v>1883</v>
       </c>
-      <c r="O405" s="77"/>
+      <c r="O405" s="78"/>
       <c r="P405" s="18" t="s">
         <v>1884</v>
       </c>
@@ -36157,7 +36157,7 @@
       <c r="N406" s="79" t="s">
         <v>1889</v>
       </c>
-      <c r="O406" s="77"/>
+      <c r="O406" s="78"/>
       <c r="P406" s="18" t="s">
         <v>1890</v>
       </c>
@@ -36221,7 +36221,7 @@
       <c r="N407" s="79" t="s">
         <v>1895</v>
       </c>
-      <c r="O407" s="77"/>
+      <c r="O407" s="78"/>
       <c r="P407" s="18" t="s">
         <v>1896</v>
       </c>
@@ -36349,7 +36349,7 @@
       <c r="N409" s="79" t="s">
         <v>1907</v>
       </c>
-      <c r="O409" s="77"/>
+      <c r="O409" s="78"/>
       <c r="P409" s="18" t="s">
         <v>1908</v>
       </c>
@@ -36413,7 +36413,7 @@
       <c r="N410" s="79" t="s">
         <v>1913</v>
       </c>
-      <c r="O410" s="77"/>
+      <c r="O410" s="78"/>
       <c r="P410" s="18" t="s">
         <v>1914</v>
       </c>
@@ -36477,7 +36477,7 @@
       <c r="N411" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="O411" s="77"/>
+      <c r="O411" s="78"/>
       <c r="P411" s="18" t="s">
         <v>1919</v>
       </c>
@@ -36541,7 +36541,7 @@
       <c r="N412" s="79" t="s">
         <v>1924</v>
       </c>
-      <c r="O412" s="77"/>
+      <c r="O412" s="78"/>
       <c r="P412" s="18" t="s">
         <v>1925</v>
       </c>
@@ -36669,7 +36669,7 @@
       <c r="N414" s="79" t="s">
         <v>1936</v>
       </c>
-      <c r="O414" s="77"/>
+      <c r="O414" s="78"/>
       <c r="P414" s="18" t="s">
         <v>1937</v>
       </c>
@@ -36795,7 +36795,7 @@
       <c r="N416" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="O416" s="77"/>
+      <c r="O416" s="78"/>
       <c r="P416" s="22"/>
       <c r="Q416" s="15"/>
       <c r="R416" s="15"/>
@@ -36839,7 +36839,7 @@
       <c r="F417" s="8" t="s">
         <v>1948</v>
       </c>
-      <c r="G417" s="81" t="s">
+      <c r="G417" s="76" t="s">
         <v>3018</v>
       </c>
       <c r="H417" s="51">
@@ -37118,10 +37118,10 @@
       <c r="M421" s="8" t="s">
         <v>1969</v>
       </c>
-      <c r="N421" s="76" t="s">
+      <c r="N421" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="O421" s="77"/>
+      <c r="O421" s="78"/>
       <c r="P421" s="10" t="s">
         <v>1970</v>
       </c>
@@ -37819,7 +37819,7 @@
       <c r="N432" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O432" s="77"/>
+      <c r="O432" s="78"/>
       <c r="P432" s="18" t="s">
         <v>2015</v>
       </c>
@@ -37901,7 +37901,7 @@
       <c r="N433" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O433" s="77"/>
+      <c r="O433" s="78"/>
       <c r="P433" s="18" t="s">
         <v>2015</v>
       </c>
@@ -37965,7 +37965,7 @@
       <c r="N434" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O434" s="77"/>
+      <c r="O434" s="78"/>
       <c r="P434" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38029,7 +38029,7 @@
       <c r="N435" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O435" s="77"/>
+      <c r="O435" s="78"/>
       <c r="P435" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38093,7 +38093,7 @@
       <c r="N436" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O436" s="77"/>
+      <c r="O436" s="78"/>
       <c r="P436" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38157,7 +38157,7 @@
       <c r="N437" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O437" s="77"/>
+      <c r="O437" s="78"/>
       <c r="P437" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38221,7 +38221,7 @@
       <c r="N438" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O438" s="77"/>
+      <c r="O438" s="78"/>
       <c r="P438" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38285,7 +38285,7 @@
       <c r="N439" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O439" s="77"/>
+      <c r="O439" s="78"/>
       <c r="P439" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38349,7 +38349,7 @@
       <c r="N440" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O440" s="77"/>
+      <c r="O440" s="78"/>
       <c r="P440" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38413,7 +38413,7 @@
       <c r="N441" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O441" s="77"/>
+      <c r="O441" s="78"/>
       <c r="P441" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38477,7 +38477,7 @@
       <c r="N442" s="79" t="s">
         <v>2014</v>
       </c>
-      <c r="O442" s="77"/>
+      <c r="O442" s="78"/>
       <c r="P442" s="18" t="s">
         <v>2015</v>
       </c>
@@ -38538,10 +38538,10 @@
       <c r="M443" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N443" s="76" t="s">
+      <c r="N443" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O443" s="77"/>
+      <c r="O443" s="78"/>
       <c r="P443" s="20"/>
       <c r="Q443" s="12"/>
       <c r="R443" s="13" t="s">
@@ -38622,10 +38622,10 @@
       <c r="M444" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N444" s="76" t="s">
+      <c r="N444" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O444" s="77"/>
+      <c r="O444" s="78"/>
       <c r="P444" s="10" t="s">
         <v>2070</v>
       </c>
@@ -38686,10 +38686,10 @@
       <c r="M445" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N445" s="76" t="s">
+      <c r="N445" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O445" s="77"/>
+      <c r="O445" s="78"/>
       <c r="P445" s="10" t="s">
         <v>2074</v>
       </c>
@@ -38750,10 +38750,10 @@
       <c r="M446" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N446" s="76" t="s">
+      <c r="N446" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O446" s="77"/>
+      <c r="O446" s="78"/>
       <c r="P446" s="10" t="s">
         <v>2078</v>
       </c>
@@ -38814,10 +38814,10 @@
       <c r="M447" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N447" s="76" t="s">
+      <c r="N447" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O447" s="77"/>
+      <c r="O447" s="78"/>
       <c r="P447" s="10" t="s">
         <v>2082</v>
       </c>
@@ -38878,10 +38878,10 @@
       <c r="M448" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N448" s="76" t="s">
+      <c r="N448" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O448" s="77"/>
+      <c r="O448" s="78"/>
       <c r="P448" s="10" t="s">
         <v>2086</v>
       </c>
@@ -38942,10 +38942,10 @@
       <c r="M449" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N449" s="76" t="s">
+      <c r="N449" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O449" s="77"/>
+      <c r="O449" s="78"/>
       <c r="P449" s="10" t="s">
         <v>2090</v>
       </c>
@@ -39006,10 +39006,10 @@
       <c r="M450" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N450" s="76" t="s">
+      <c r="N450" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O450" s="77"/>
+      <c r="O450" s="78"/>
       <c r="P450" s="10" t="s">
         <v>2094</v>
       </c>
@@ -39070,10 +39070,10 @@
       <c r="M451" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N451" s="76" t="s">
+      <c r="N451" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O451" s="77"/>
+      <c r="O451" s="78"/>
       <c r="P451" s="10" t="s">
         <v>2098</v>
       </c>
@@ -39136,10 +39136,10 @@
       <c r="M452" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N452" s="76" t="s">
+      <c r="N452" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O452" s="77"/>
+      <c r="O452" s="78"/>
       <c r="P452" s="10" t="s">
         <v>2102</v>
       </c>
@@ -39200,10 +39200,10 @@
       <c r="M453" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N453" s="76" t="s">
+      <c r="N453" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O453" s="77"/>
+      <c r="O453" s="78"/>
       <c r="P453" s="10" t="s">
         <v>2106</v>
       </c>
@@ -39262,10 +39262,10 @@
       <c r="M454" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N454" s="76" t="s">
+      <c r="N454" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O454" s="77"/>
+      <c r="O454" s="78"/>
       <c r="P454" s="20"/>
       <c r="Q454" s="15"/>
       <c r="R454" s="14"/>
@@ -39322,10 +39322,10 @@
       <c r="M455" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N455" s="76" t="s">
+      <c r="N455" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O455" s="77"/>
+      <c r="O455" s="78"/>
       <c r="P455" s="10"/>
       <c r="Q455" s="15"/>
       <c r="R455" s="14"/>
@@ -39382,10 +39382,10 @@
       <c r="M456" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N456" s="76" t="s">
+      <c r="N456" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O456" s="77"/>
+      <c r="O456" s="78"/>
       <c r="P456" s="10"/>
       <c r="Q456" s="15"/>
       <c r="R456" s="14"/>
@@ -39442,10 +39442,10 @@
       <c r="M457" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="N457" s="76" t="s">
+      <c r="N457" s="77" t="s">
         <v>1308</v>
       </c>
-      <c r="O457" s="77"/>
+      <c r="O457" s="78"/>
       <c r="P457" s="10"/>
       <c r="Q457" s="15"/>
       <c r="R457" s="14"/>
@@ -39504,10 +39504,10 @@
       <c r="M458" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N458" s="78" t="s">
+      <c r="N458" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O458" s="77"/>
+      <c r="O458" s="78"/>
       <c r="P458" s="26" t="s">
         <v>522</v>
       </c>
@@ -39592,10 +39592,10 @@
       <c r="M459" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N459" s="78" t="s">
+      <c r="N459" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O459" s="77"/>
+      <c r="O459" s="78"/>
       <c r="P459" s="26"/>
       <c r="Q459" s="15"/>
       <c r="R459" s="28"/>
@@ -39652,10 +39652,10 @@
       <c r="M460" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N460" s="78" t="s">
+      <c r="N460" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O460" s="77"/>
+      <c r="O460" s="78"/>
       <c r="P460" s="26"/>
       <c r="Q460" s="15"/>
       <c r="R460" s="28"/>
@@ -39712,10 +39712,10 @@
       <c r="M461" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N461" s="78" t="s">
+      <c r="N461" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O461" s="77"/>
+      <c r="O461" s="78"/>
       <c r="P461" s="26"/>
       <c r="Q461" s="15"/>
       <c r="R461" s="28"/>
@@ -39772,10 +39772,10 @@
       <c r="M462" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N462" s="78" t="s">
+      <c r="N462" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O462" s="77"/>
+      <c r="O462" s="78"/>
       <c r="P462" s="26"/>
       <c r="Q462" s="15"/>
       <c r="R462" s="28"/>
@@ -39832,10 +39832,10 @@
       <c r="M463" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N463" s="78" t="s">
+      <c r="N463" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O463" s="77"/>
+      <c r="O463" s="78"/>
       <c r="P463" s="26"/>
       <c r="Q463" s="15"/>
       <c r="R463" s="28"/>
@@ -39892,10 +39892,10 @@
       <c r="M464" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N464" s="78" t="s">
+      <c r="N464" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O464" s="77"/>
+      <c r="O464" s="78"/>
       <c r="P464" s="26"/>
       <c r="Q464" s="15"/>
       <c r="R464" s="28"/>
@@ -39952,10 +39952,10 @@
       <c r="M465" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N465" s="78" t="s">
+      <c r="N465" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O465" s="77"/>
+      <c r="O465" s="78"/>
       <c r="P465" s="26"/>
       <c r="Q465" s="15"/>
       <c r="R465" s="28"/>
@@ -40012,10 +40012,10 @@
       <c r="M466" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N466" s="78" t="s">
+      <c r="N466" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O466" s="77"/>
+      <c r="O466" s="78"/>
       <c r="P466" s="26"/>
       <c r="Q466" s="15"/>
       <c r="R466" s="28"/>
@@ -40072,10 +40072,10 @@
       <c r="M467" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N467" s="78" t="s">
+      <c r="N467" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O467" s="77"/>
+      <c r="O467" s="78"/>
       <c r="P467" s="26"/>
       <c r="Q467" s="15"/>
       <c r="R467" s="28"/>
@@ -40132,10 +40132,10 @@
       <c r="M468" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N468" s="78" t="s">
+      <c r="N468" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O468" s="77"/>
+      <c r="O468" s="78"/>
       <c r="P468" s="26"/>
       <c r="Q468" s="15"/>
       <c r="R468" s="28"/>
@@ -40192,10 +40192,10 @@
       <c r="M469" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N469" s="78" t="s">
+      <c r="N469" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O469" s="77"/>
+      <c r="O469" s="78"/>
       <c r="P469" s="26"/>
       <c r="Q469" s="15"/>
       <c r="R469" s="28"/>
@@ -40252,10 +40252,10 @@
       <c r="M470" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N470" s="78" t="s">
+      <c r="N470" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O470" s="77"/>
+      <c r="O470" s="78"/>
       <c r="P470" s="26"/>
       <c r="Q470" s="15"/>
       <c r="R470" s="28"/>
@@ -40312,10 +40312,10 @@
       <c r="M471" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N471" s="78" t="s">
+      <c r="N471" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O471" s="77"/>
+      <c r="O471" s="78"/>
       <c r="P471" s="26"/>
       <c r="Q471" s="15"/>
       <c r="R471" s="28"/>
@@ -40372,10 +40372,10 @@
       <c r="M472" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="N472" s="78" t="s">
+      <c r="N472" s="80" t="s">
         <v>2121</v>
       </c>
-      <c r="O472" s="77"/>
+      <c r="O472" s="78"/>
       <c r="P472" s="26"/>
       <c r="Q472" s="15"/>
       <c r="R472" s="28"/>
@@ -40439,7 +40439,7 @@
       <c r="N473" s="79" t="s">
         <v>2165</v>
       </c>
-      <c r="O473" s="77"/>
+      <c r="O473" s="78"/>
       <c r="P473" s="18" t="s">
         <v>2166</v>
       </c>
@@ -40521,7 +40521,7 @@
       <c r="N474" s="79" t="s">
         <v>2177</v>
       </c>
-      <c r="O474" s="77"/>
+      <c r="O474" s="78"/>
       <c r="P474" s="18" t="s">
         <v>2178</v>
       </c>
@@ -40649,7 +40649,7 @@
       <c r="N476" s="79" t="s">
         <v>2189</v>
       </c>
-      <c r="O476" s="77"/>
+      <c r="O476" s="78"/>
       <c r="P476" s="18" t="s">
         <v>2190</v>
       </c>
@@ -40713,7 +40713,7 @@
       <c r="N477" s="79" t="s">
         <v>2195</v>
       </c>
-      <c r="O477" s="77"/>
+      <c r="O477" s="78"/>
       <c r="P477" s="18" t="s">
         <v>2196</v>
       </c>
@@ -40777,7 +40777,7 @@
       <c r="N478" s="79" t="s">
         <v>2170</v>
       </c>
-      <c r="O478" s="77"/>
+      <c r="O478" s="78"/>
       <c r="P478" s="18" t="s">
         <v>2200</v>
       </c>
@@ -40841,7 +40841,7 @@
       <c r="N479" s="79" t="s">
         <v>1553</v>
       </c>
-      <c r="O479" s="77"/>
+      <c r="O479" s="78"/>
       <c r="P479" s="18" t="s">
         <v>2205</v>
       </c>
@@ -41097,7 +41097,7 @@
       <c r="N483" s="79" t="s">
         <v>2226</v>
       </c>
-      <c r="O483" s="77"/>
+      <c r="O483" s="78"/>
       <c r="P483" s="18" t="s">
         <v>2227</v>
       </c>
@@ -41161,7 +41161,7 @@
       <c r="N484" s="79" t="s">
         <v>2232</v>
       </c>
-      <c r="O484" s="77"/>
+      <c r="O484" s="78"/>
       <c r="P484" s="18" t="s">
         <v>2233</v>
       </c>
@@ -41353,7 +41353,7 @@
       <c r="N487" s="79" t="s">
         <v>2248</v>
       </c>
-      <c r="O487" s="77"/>
+      <c r="O487" s="78"/>
       <c r="P487" s="18" t="s">
         <v>2249</v>
       </c>
@@ -42383,7 +42383,7 @@
       <c r="N503" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O503" s="77"/>
+      <c r="O503" s="78"/>
       <c r="P503" s="18" t="s">
         <v>2314</v>
       </c>
@@ -42457,7 +42457,7 @@
       <c r="N504" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O504" s="77"/>
+      <c r="O504" s="78"/>
       <c r="P504" s="18" t="s">
         <v>2321</v>
       </c>
@@ -42523,7 +42523,7 @@
       <c r="N505" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O505" s="77"/>
+      <c r="O505" s="78"/>
       <c r="P505" s="18" t="s">
         <v>2325</v>
       </c>
@@ -42587,7 +42587,7 @@
       <c r="N506" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O506" s="77"/>
+      <c r="O506" s="78"/>
       <c r="P506" s="18" t="s">
         <v>2329</v>
       </c>
@@ -42651,7 +42651,7 @@
       <c r="N507" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O507" s="77"/>
+      <c r="O507" s="78"/>
       <c r="P507" s="18" t="s">
         <v>2333</v>
       </c>
@@ -42715,7 +42715,7 @@
       <c r="N508" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O508" s="77"/>
+      <c r="O508" s="78"/>
       <c r="P508" s="18" t="s">
         <v>2337</v>
       </c>
@@ -42779,7 +42779,7 @@
       <c r="N509" s="79" t="s">
         <v>2313</v>
       </c>
-      <c r="O509" s="77"/>
+      <c r="O509" s="78"/>
       <c r="P509" s="18" t="s">
         <v>2341</v>
       </c>
@@ -42842,10 +42842,10 @@
       <c r="M510" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N510" s="76" t="s">
+      <c r="N510" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O510" s="77"/>
+      <c r="O510" s="78"/>
       <c r="P510" s="10" t="s">
         <v>2349</v>
       </c>
@@ -42877,10 +42877,10 @@
       <c r="Z510" s="13" t="s">
         <v>2354</v>
       </c>
-      <c r="AA510" s="80" t="s">
+      <c r="AA510" s="81" t="s">
         <v>2355</v>
       </c>
-      <c r="AB510" s="77"/>
+      <c r="AB510" s="78"/>
       <c r="AC510" s="14"/>
       <c r="AD510" s="14"/>
       <c r="AE510" s="14"/>
@@ -42926,10 +42926,10 @@
       <c r="M511" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N511" s="76" t="s">
+      <c r="N511" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O511" s="77"/>
+      <c r="O511" s="78"/>
       <c r="P511" s="10" t="s">
         <v>2359</v>
       </c>
@@ -42988,10 +42988,10 @@
       <c r="M512" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N512" s="76" t="s">
+      <c r="N512" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O512" s="77"/>
+      <c r="O512" s="78"/>
       <c r="P512" s="10" t="s">
         <v>2361</v>
       </c>
@@ -43050,10 +43050,10 @@
       <c r="M513" s="8" t="s">
         <v>2354</v>
       </c>
-      <c r="N513" s="76" t="s">
+      <c r="N513" s="77" t="s">
         <v>2355</v>
       </c>
-      <c r="O513" s="77"/>
+      <c r="O513" s="78"/>
       <c r="P513" s="10" t="s">
         <v>11</v>
       </c>
@@ -43114,10 +43114,10 @@
       <c r="M514" s="8" t="s">
         <v>2354</v>
       </c>
-      <c r="N514" s="76" t="s">
+      <c r="N514" s="77" t="s">
         <v>2355</v>
       </c>
-      <c r="O514" s="77"/>
+      <c r="O514" s="78"/>
       <c r="P514" s="10" t="s">
         <v>2367</v>
       </c>
@@ -43178,10 +43178,10 @@
       <c r="M515" s="8" t="s">
         <v>2354</v>
       </c>
-      <c r="N515" s="76" t="s">
+      <c r="N515" s="77" t="s">
         <v>2355</v>
       </c>
-      <c r="O515" s="77"/>
+      <c r="O515" s="78"/>
       <c r="P515" s="10" t="s">
         <v>2371</v>
       </c>
@@ -43240,10 +43240,10 @@
       <c r="M516" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N516" s="76" t="s">
+      <c r="N516" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O516" s="77"/>
+      <c r="O516" s="78"/>
       <c r="P516" s="10" t="s">
         <v>2373</v>
       </c>
@@ -43302,10 +43302,10 @@
       <c r="M517" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N517" s="76" t="s">
+      <c r="N517" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O517" s="77"/>
+      <c r="O517" s="78"/>
       <c r="P517" s="10" t="s">
         <v>2375</v>
       </c>
@@ -43364,10 +43364,10 @@
       <c r="M518" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N518" s="76" t="s">
+      <c r="N518" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O518" s="77"/>
+      <c r="O518" s="78"/>
       <c r="P518" s="10" t="s">
         <v>2377</v>
       </c>
@@ -43426,10 +43426,10 @@
       <c r="M519" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N519" s="76" t="s">
+      <c r="N519" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O519" s="77"/>
+      <c r="O519" s="78"/>
       <c r="P519" s="10" t="s">
         <v>2380</v>
       </c>
@@ -43488,10 +43488,10 @@
       <c r="M520" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N520" s="76" t="s">
+      <c r="N520" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O520" s="77"/>
+      <c r="O520" s="78"/>
       <c r="P520" s="10" t="s">
         <v>2382</v>
       </c>
@@ -43552,10 +43552,10 @@
       <c r="M521" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N521" s="76" t="s">
+      <c r="N521" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O521" s="77"/>
+      <c r="O521" s="78"/>
       <c r="P521" s="10" t="s">
         <v>2386</v>
       </c>
@@ -43680,10 +43680,10 @@
       <c r="M523" s="8" t="s">
         <v>2354</v>
       </c>
-      <c r="N523" s="76" t="s">
+      <c r="N523" s="77" t="s">
         <v>2355</v>
       </c>
-      <c r="O523" s="77"/>
+      <c r="O523" s="78"/>
       <c r="P523" s="10" t="s">
         <v>2394</v>
       </c>
@@ -43742,10 +43742,10 @@
       <c r="M524" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="N524" s="76" t="s">
+      <c r="N524" s="77" t="s">
         <v>1907</v>
       </c>
-      <c r="O524" s="77"/>
+      <c r="O524" s="78"/>
       <c r="P524" s="10" t="s">
         <v>2396</v>
       </c>
@@ -43811,7 +43811,7 @@
       <c r="N525" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O525" s="77"/>
+      <c r="O525" s="78"/>
       <c r="P525" s="22"/>
       <c r="Q525" s="12"/>
       <c r="R525" s="12" t="s">
@@ -43885,7 +43885,7 @@
       <c r="N526" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O526" s="77"/>
+      <c r="O526" s="78"/>
       <c r="P526" s="18"/>
       <c r="Q526" s="15"/>
       <c r="R526" s="15"/>
@@ -43949,7 +43949,7 @@
       <c r="N527" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O527" s="77"/>
+      <c r="O527" s="78"/>
       <c r="P527" s="18"/>
       <c r="Q527" s="15"/>
       <c r="R527" s="15"/>
@@ -44009,7 +44009,7 @@
       <c r="N528" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O528" s="77"/>
+      <c r="O528" s="78"/>
       <c r="P528" s="18"/>
       <c r="Q528" s="15"/>
       <c r="R528" s="15"/>
@@ -44069,7 +44069,7 @@
       <c r="N529" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O529" s="77"/>
+      <c r="O529" s="78"/>
       <c r="P529" s="18"/>
       <c r="Q529" s="15"/>
       <c r="R529" s="15"/>
@@ -44129,7 +44129,7 @@
       <c r="N530" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O530" s="77"/>
+      <c r="O530" s="78"/>
       <c r="P530" s="18"/>
       <c r="Q530" s="15"/>
       <c r="R530" s="15"/>
@@ -44189,7 +44189,7 @@
       <c r="N531" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O531" s="77"/>
+      <c r="O531" s="78"/>
       <c r="P531" s="18"/>
       <c r="Q531" s="15"/>
       <c r="R531" s="15"/>
@@ -44249,7 +44249,7 @@
       <c r="N532" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O532" s="77"/>
+      <c r="O532" s="78"/>
       <c r="P532" s="18"/>
       <c r="Q532" s="15"/>
       <c r="R532" s="15"/>
@@ -44309,7 +44309,7 @@
       <c r="N533" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O533" s="77"/>
+      <c r="O533" s="78"/>
       <c r="P533" s="18"/>
       <c r="Q533" s="15"/>
       <c r="R533" s="15"/>
@@ -44369,7 +44369,7 @@
       <c r="N534" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O534" s="77"/>
+      <c r="O534" s="78"/>
       <c r="P534" s="18"/>
       <c r="Q534" s="15"/>
       <c r="R534" s="15"/>
@@ -44429,7 +44429,7 @@
       <c r="N535" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O535" s="77"/>
+      <c r="O535" s="78"/>
       <c r="P535" s="18"/>
       <c r="Q535" s="15"/>
       <c r="R535" s="15"/>
@@ -44489,7 +44489,7 @@
       <c r="N536" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O536" s="77"/>
+      <c r="O536" s="78"/>
       <c r="P536" s="18"/>
       <c r="Q536" s="15"/>
       <c r="R536" s="15"/>
@@ -44549,7 +44549,7 @@
       <c r="N537" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O537" s="77"/>
+      <c r="O537" s="78"/>
       <c r="P537" s="18"/>
       <c r="Q537" s="15"/>
       <c r="R537" s="15"/>
@@ -44609,7 +44609,7 @@
       <c r="N538" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O538" s="77"/>
+      <c r="O538" s="78"/>
       <c r="P538" s="18"/>
       <c r="Q538" s="15"/>
       <c r="R538" s="15"/>
@@ -44669,7 +44669,7 @@
       <c r="N539" s="79" t="s">
         <v>2404</v>
       </c>
-      <c r="O539" s="77"/>
+      <c r="O539" s="78"/>
       <c r="P539" s="18"/>
       <c r="Q539" s="15"/>
       <c r="R539" s="15"/>
@@ -46752,10 +46752,10 @@
       <c r="M572" s="8" t="s">
         <v>2553</v>
       </c>
-      <c r="N572" s="76" t="s">
+      <c r="N572" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="O572" s="77"/>
+      <c r="O572" s="78"/>
       <c r="P572" s="10" t="s">
         <v>2554</v>
       </c>
@@ -47635,7 +47635,7 @@
       <c r="N586" s="79" t="s">
         <v>2604</v>
       </c>
-      <c r="O586" s="77"/>
+      <c r="O586" s="78"/>
       <c r="P586" s="18" t="s">
         <v>2605</v>
       </c>
@@ -47699,7 +47699,7 @@
       <c r="N587" s="79" t="s">
         <v>2604</v>
       </c>
-      <c r="O587" s="77"/>
+      <c r="O587" s="78"/>
       <c r="P587" s="18" t="s">
         <v>2610</v>
       </c>
@@ -47823,7 +47823,7 @@
       <c r="N589" s="79" t="s">
         <v>2598</v>
       </c>
-      <c r="O589" s="77"/>
+      <c r="O589" s="78"/>
       <c r="P589" s="18" t="s">
         <v>2616</v>
       </c>
@@ -47887,7 +47887,7 @@
       <c r="N590" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="O590" s="77"/>
+      <c r="O590" s="78"/>
       <c r="P590" s="18" t="s">
         <v>2621</v>
       </c>
@@ -48015,7 +48015,7 @@
       <c r="N592" s="79" t="s">
         <v>2632</v>
       </c>
-      <c r="O592" s="77"/>
+      <c r="O592" s="78"/>
       <c r="P592" s="18" t="s">
         <v>2633</v>
       </c>
@@ -48079,7 +48079,7 @@
       <c r="N593" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="O593" s="77"/>
+      <c r="O593" s="78"/>
       <c r="P593" s="18" t="s">
         <v>2638</v>
       </c>
@@ -53468,10 +53468,10 @@
       <c r="M679" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N679" s="76" t="s">
+      <c r="N679" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O679" s="77"/>
+      <c r="O679" s="78"/>
       <c r="P679" s="10"/>
       <c r="Q679" s="12"/>
       <c r="R679" s="13" t="s">
@@ -53540,10 +53540,10 @@
       <c r="M680" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N680" s="76" t="s">
+      <c r="N680" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O680" s="77"/>
+      <c r="O680" s="78"/>
       <c r="P680" s="10"/>
       <c r="Q680" s="15"/>
       <c r="R680" s="14"/>
@@ -53602,10 +53602,10 @@
       <c r="M681" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N681" s="76" t="s">
+      <c r="N681" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O681" s="77"/>
+      <c r="O681" s="78"/>
       <c r="P681" s="10"/>
       <c r="Q681" s="15"/>
       <c r="R681" s="14"/>
@@ -53664,10 +53664,10 @@
       <c r="M682" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N682" s="76" t="s">
+      <c r="N682" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O682" s="77"/>
+      <c r="O682" s="78"/>
       <c r="P682" s="10"/>
       <c r="Q682" s="15"/>
       <c r="R682" s="14"/>
@@ -53726,10 +53726,10 @@
       <c r="M683" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N683" s="76" t="s">
+      <c r="N683" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O683" s="77"/>
+      <c r="O683" s="78"/>
       <c r="P683" s="10"/>
       <c r="Q683" s="15"/>
       <c r="R683" s="14"/>
@@ -53788,10 +53788,10 @@
       <c r="M684" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N684" s="76" t="s">
+      <c r="N684" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O684" s="77"/>
+      <c r="O684" s="78"/>
       <c r="P684" s="10"/>
       <c r="Q684" s="15"/>
       <c r="R684" s="14"/>
@@ -53852,10 +53852,10 @@
       <c r="M685" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N685" s="76" t="s">
+      <c r="N685" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O685" s="77"/>
+      <c r="O685" s="78"/>
       <c r="P685" s="10"/>
       <c r="Q685" s="15"/>
       <c r="R685" s="14"/>
@@ -53916,10 +53916,10 @@
       <c r="M686" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N686" s="76" t="s">
+      <c r="N686" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O686" s="77"/>
+      <c r="O686" s="78"/>
       <c r="P686" s="10"/>
       <c r="Q686" s="15"/>
       <c r="R686" s="14"/>
@@ -53976,10 +53976,10 @@
       <c r="M687" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N687" s="76" t="s">
+      <c r="N687" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O687" s="77"/>
+      <c r="O687" s="78"/>
       <c r="P687" s="10"/>
       <c r="Q687" s="15"/>
       <c r="R687" s="14"/>
@@ -54036,10 +54036,10 @@
       <c r="M688" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N688" s="76" t="s">
+      <c r="N688" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O688" s="77"/>
+      <c r="O688" s="78"/>
       <c r="P688" s="10"/>
       <c r="Q688" s="15"/>
       <c r="R688" s="14"/>
@@ -54096,10 +54096,10 @@
       <c r="M689" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N689" s="76" t="s">
+      <c r="N689" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O689" s="77"/>
+      <c r="O689" s="78"/>
       <c r="P689" s="10"/>
       <c r="Q689" s="15"/>
       <c r="R689" s="14"/>
@@ -54156,10 +54156,10 @@
       <c r="M690" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N690" s="76" t="s">
+      <c r="N690" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O690" s="77"/>
+      <c r="O690" s="78"/>
       <c r="P690" s="10"/>
       <c r="Q690" s="15"/>
       <c r="R690" s="14"/>
@@ -54216,10 +54216,10 @@
       <c r="M691" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N691" s="76" t="s">
+      <c r="N691" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O691" s="77"/>
+      <c r="O691" s="78"/>
       <c r="P691" s="10"/>
       <c r="Q691" s="15"/>
       <c r="R691" s="14"/>
@@ -54276,10 +54276,10 @@
       <c r="M692" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N692" s="76" t="s">
+      <c r="N692" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O692" s="77"/>
+      <c r="O692" s="78"/>
       <c r="P692" s="10"/>
       <c r="Q692" s="15"/>
       <c r="R692" s="14"/>
@@ -54336,10 +54336,10 @@
       <c r="M693" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="N693" s="76" t="s">
+      <c r="N693" s="77" t="s">
         <v>2924</v>
       </c>
-      <c r="O693" s="77"/>
+      <c r="O693" s="78"/>
       <c r="P693" s="10"/>
       <c r="Q693" s="15"/>
       <c r="R693" s="14"/>
@@ -61756,87 +61756,288 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="387">
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="N163:O163"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="N155:O155"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="N483:O483"/>
-    <mergeCell ref="N484:O484"/>
-    <mergeCell ref="N487:O487"/>
-    <mergeCell ref="N511:O511"/>
-    <mergeCell ref="N512:O512"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="N503:O503"/>
-    <mergeCell ref="N506:O506"/>
-    <mergeCell ref="N507:O507"/>
-    <mergeCell ref="N508:O508"/>
-    <mergeCell ref="N509:O509"/>
-    <mergeCell ref="N510:O510"/>
-    <mergeCell ref="N519:O519"/>
-    <mergeCell ref="N504:O504"/>
-    <mergeCell ref="N505:O505"/>
-    <mergeCell ref="N513:O513"/>
-    <mergeCell ref="N514:O514"/>
-    <mergeCell ref="N515:O515"/>
-    <mergeCell ref="N516:O516"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="N517:O517"/>
-    <mergeCell ref="N518:O518"/>
-    <mergeCell ref="N539:O539"/>
-    <mergeCell ref="N535:O535"/>
-    <mergeCell ref="N536:O536"/>
-    <mergeCell ref="N537:O537"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="N534:O534"/>
-    <mergeCell ref="N586:O586"/>
-    <mergeCell ref="N592:O592"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="N528:O528"/>
-    <mergeCell ref="N529:O529"/>
-    <mergeCell ref="N530:O530"/>
-    <mergeCell ref="N531:O531"/>
-    <mergeCell ref="N532:O532"/>
-    <mergeCell ref="N533:O533"/>
-    <mergeCell ref="N538:O538"/>
-    <mergeCell ref="N572:O572"/>
+    <mergeCell ref="N693:O693"/>
+    <mergeCell ref="N690:O690"/>
+    <mergeCell ref="N692:O692"/>
+    <mergeCell ref="N691:O691"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="N688:O688"/>
+    <mergeCell ref="N689:O689"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="N249:O249"/>
+    <mergeCell ref="N250:O250"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N679:O679"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="N170:O170"/>
+    <mergeCell ref="N171:O171"/>
+    <mergeCell ref="N172:O172"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="N197:O197"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="AA510:AB510"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N219:O219"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="N225:O225"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="N305:O305"/>
+    <mergeCell ref="N306:O306"/>
+    <mergeCell ref="N307:O307"/>
+    <mergeCell ref="N308:O308"/>
+    <mergeCell ref="N309:O309"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="N168:O168"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="N167:O167"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N199:O199"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="N191:O191"/>
+    <mergeCell ref="N192:O192"/>
+    <mergeCell ref="N193:O193"/>
+    <mergeCell ref="N194:O194"/>
+    <mergeCell ref="N195:O195"/>
+    <mergeCell ref="N196:O196"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="N304:O304"/>
+    <mergeCell ref="N299:O299"/>
+    <mergeCell ref="N300:O300"/>
+    <mergeCell ref="N301:O301"/>
+    <mergeCell ref="N302:O302"/>
+    <mergeCell ref="N303:O303"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="N263:O263"/>
+    <mergeCell ref="N265:O265"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="N213:O213"/>
+    <mergeCell ref="N222:O222"/>
+    <mergeCell ref="N223:O223"/>
+    <mergeCell ref="N218:O218"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="N243:O243"/>
+    <mergeCell ref="N246:O246"/>
+    <mergeCell ref="N244:O244"/>
+    <mergeCell ref="N245:O245"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="N234:O234"/>
+    <mergeCell ref="N235:O235"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="N237:O237"/>
+    <mergeCell ref="N277:O277"/>
+    <mergeCell ref="N272:O272"/>
+    <mergeCell ref="N247:O247"/>
+    <mergeCell ref="N273:O273"/>
+    <mergeCell ref="N274:O274"/>
+    <mergeCell ref="N275:O275"/>
+    <mergeCell ref="N276:O276"/>
+    <mergeCell ref="N267:O267"/>
+    <mergeCell ref="N268:O268"/>
+    <mergeCell ref="N269:O269"/>
+    <mergeCell ref="N270:O270"/>
+    <mergeCell ref="N266:O266"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="N271:O271"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N330:O330"/>
+    <mergeCell ref="N329:O329"/>
+    <mergeCell ref="N331:O331"/>
+    <mergeCell ref="N332:O332"/>
+    <mergeCell ref="N335:O335"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="N334:O334"/>
+    <mergeCell ref="N333:O333"/>
+    <mergeCell ref="N465:O465"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="N476:O476"/>
+    <mergeCell ref="N361:O361"/>
+    <mergeCell ref="N362:O362"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="N359:O359"/>
+    <mergeCell ref="N360:O360"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="N363:O363"/>
+    <mergeCell ref="N459:O459"/>
+    <mergeCell ref="N460:O460"/>
+    <mergeCell ref="N461:O461"/>
+    <mergeCell ref="N462:O462"/>
+    <mergeCell ref="N463:O463"/>
+    <mergeCell ref="N464:O464"/>
+    <mergeCell ref="N454:O454"/>
+    <mergeCell ref="N455:O455"/>
+    <mergeCell ref="N456:O456"/>
+    <mergeCell ref="N457:O457"/>
+    <mergeCell ref="N458:O458"/>
+    <mergeCell ref="N467:O467"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="N478:O478"/>
+    <mergeCell ref="N479:O479"/>
+    <mergeCell ref="N466:O466"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="N432:O432"/>
+    <mergeCell ref="N433:O433"/>
+    <mergeCell ref="N434:O434"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="N372:O372"/>
+    <mergeCell ref="N373:O373"/>
+    <mergeCell ref="N410:O410"/>
+    <mergeCell ref="N411:O411"/>
+    <mergeCell ref="N404:O404"/>
+    <mergeCell ref="N405:O405"/>
+    <mergeCell ref="N406:O406"/>
+    <mergeCell ref="N407:O407"/>
+    <mergeCell ref="N409:O409"/>
+    <mergeCell ref="N402:O402"/>
+    <mergeCell ref="N403:O403"/>
     <mergeCell ref="N593:O593"/>
     <mergeCell ref="N589:O589"/>
     <mergeCell ref="N590:O590"/>
@@ -61861,288 +62062,87 @@
     <mergeCell ref="N453:O453"/>
     <mergeCell ref="N441:O441"/>
     <mergeCell ref="N442:O442"/>
-    <mergeCell ref="N432:O432"/>
-    <mergeCell ref="N433:O433"/>
-    <mergeCell ref="N434:O434"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="N372:O372"/>
-    <mergeCell ref="N373:O373"/>
-    <mergeCell ref="N410:O410"/>
-    <mergeCell ref="N411:O411"/>
-    <mergeCell ref="N404:O404"/>
-    <mergeCell ref="N405:O405"/>
-    <mergeCell ref="N406:O406"/>
-    <mergeCell ref="N407:O407"/>
-    <mergeCell ref="N409:O409"/>
-    <mergeCell ref="N402:O402"/>
-    <mergeCell ref="N403:O403"/>
-    <mergeCell ref="N467:O467"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="N478:O478"/>
-    <mergeCell ref="N479:O479"/>
-    <mergeCell ref="N466:O466"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="N465:O465"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="N476:O476"/>
-    <mergeCell ref="N361:O361"/>
-    <mergeCell ref="N362:O362"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="N359:O359"/>
-    <mergeCell ref="N360:O360"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="N363:O363"/>
-    <mergeCell ref="N459:O459"/>
-    <mergeCell ref="N460:O460"/>
-    <mergeCell ref="N461:O461"/>
-    <mergeCell ref="N462:O462"/>
-    <mergeCell ref="N463:O463"/>
-    <mergeCell ref="N464:O464"/>
-    <mergeCell ref="N454:O454"/>
-    <mergeCell ref="N455:O455"/>
-    <mergeCell ref="N456:O456"/>
-    <mergeCell ref="N457:O457"/>
-    <mergeCell ref="N458:O458"/>
-    <mergeCell ref="N330:O330"/>
-    <mergeCell ref="N329:O329"/>
-    <mergeCell ref="N331:O331"/>
-    <mergeCell ref="N332:O332"/>
-    <mergeCell ref="N335:O335"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="N334:O334"/>
-    <mergeCell ref="N333:O333"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="N234:O234"/>
-    <mergeCell ref="N235:O235"/>
-    <mergeCell ref="N236:O236"/>
-    <mergeCell ref="N237:O237"/>
-    <mergeCell ref="N277:O277"/>
-    <mergeCell ref="N272:O272"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="N273:O273"/>
-    <mergeCell ref="N274:O274"/>
-    <mergeCell ref="N275:O275"/>
-    <mergeCell ref="N276:O276"/>
-    <mergeCell ref="N267:O267"/>
-    <mergeCell ref="N268:O268"/>
-    <mergeCell ref="N269:O269"/>
-    <mergeCell ref="N270:O270"/>
-    <mergeCell ref="N266:O266"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="N271:O271"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="N241:O241"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="N263:O263"/>
-    <mergeCell ref="N265:O265"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="N213:O213"/>
-    <mergeCell ref="N222:O222"/>
-    <mergeCell ref="N223:O223"/>
-    <mergeCell ref="N218:O218"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="N243:O243"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="N244:O244"/>
-    <mergeCell ref="N245:O245"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="N304:O304"/>
-    <mergeCell ref="N299:O299"/>
-    <mergeCell ref="N300:O300"/>
-    <mergeCell ref="N301:O301"/>
-    <mergeCell ref="N302:O302"/>
-    <mergeCell ref="N303:O303"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="N199:O199"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="N191:O191"/>
-    <mergeCell ref="N192:O192"/>
-    <mergeCell ref="N193:O193"/>
-    <mergeCell ref="N194:O194"/>
-    <mergeCell ref="N195:O195"/>
-    <mergeCell ref="N196:O196"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N159:O159"/>
-    <mergeCell ref="N160:O160"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="N158:O158"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="N167:O167"/>
-    <mergeCell ref="N161:O161"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="AA510:AB510"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N214:O214"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="N224:O224"/>
-    <mergeCell ref="N225:O225"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="N305:O305"/>
-    <mergeCell ref="N306:O306"/>
-    <mergeCell ref="N307:O307"/>
-    <mergeCell ref="N308:O308"/>
-    <mergeCell ref="N309:O309"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="N169:O169"/>
-    <mergeCell ref="N170:O170"/>
-    <mergeCell ref="N171:O171"/>
-    <mergeCell ref="N172:O172"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="N197:O197"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N693:O693"/>
-    <mergeCell ref="N690:O690"/>
-    <mergeCell ref="N692:O692"/>
-    <mergeCell ref="N691:O691"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="N688:O688"/>
-    <mergeCell ref="N689:O689"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="N250:O250"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N679:O679"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="N586:O586"/>
+    <mergeCell ref="N592:O592"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="N528:O528"/>
+    <mergeCell ref="N529:O529"/>
+    <mergeCell ref="N530:O530"/>
+    <mergeCell ref="N531:O531"/>
+    <mergeCell ref="N532:O532"/>
+    <mergeCell ref="N533:O533"/>
+    <mergeCell ref="N538:O538"/>
+    <mergeCell ref="N572:O572"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="N517:O517"/>
+    <mergeCell ref="N518:O518"/>
+    <mergeCell ref="N539:O539"/>
+    <mergeCell ref="N535:O535"/>
+    <mergeCell ref="N536:O536"/>
+    <mergeCell ref="N537:O537"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="N534:O534"/>
+    <mergeCell ref="N483:O483"/>
+    <mergeCell ref="N484:O484"/>
+    <mergeCell ref="N487:O487"/>
+    <mergeCell ref="N511:O511"/>
+    <mergeCell ref="N512:O512"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="N503:O503"/>
+    <mergeCell ref="N506:O506"/>
+    <mergeCell ref="N507:O507"/>
+    <mergeCell ref="N508:O508"/>
+    <mergeCell ref="N509:O509"/>
+    <mergeCell ref="N510:O510"/>
+    <mergeCell ref="N519:O519"/>
+    <mergeCell ref="N504:O504"/>
+    <mergeCell ref="N505:O505"/>
+    <mergeCell ref="N513:O513"/>
+    <mergeCell ref="N514:O514"/>
+    <mergeCell ref="N515:O515"/>
+    <mergeCell ref="N516:O516"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="N129:O129"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>

--- a/polls/IROS20_WSandTR.xlsx
+++ b/polls/IROS20_WSandTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79122A17-72E7-44A3-A1A1-221032C54B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A1EAD-DDA9-4570-9405-334B7D9C1E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7133" uniqueCount="3223">
   <si>
     <t>WS/TR Nr</t>
   </si>
@@ -9531,6 +9531,174 @@
   </si>
   <si>
     <t>3959_WV.mp4</t>
+  </si>
+  <si>
+    <t>3233_WV.mp4</t>
+  </si>
+  <si>
+    <t>Calli, Berk</t>
+  </si>
+  <si>
+    <t>Worcester Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>Kragic, Danica</t>
+  </si>
+  <si>
+    <t>KTH Royal Institute of Technology</t>
+  </si>
+  <si>
+    <t>Suarez, Raul</t>
+  </si>
+  <si>
+    <t>Universitat Politecnica de Catalunya</t>
+  </si>
+  <si>
+    <t>Alonso-Mora, Javier</t>
+  </si>
+  <si>
+    <t>Perdereau, Veronique</t>
+  </si>
+  <si>
+    <t>Sorbonne Université</t>
+  </si>
+  <si>
+    <t>Sanchez, Daniel</t>
+  </si>
+  <si>
+    <t>Zapata-Impata, Brayan S.</t>
+  </si>
+  <si>
+    <t>Universidad de Alicante</t>
+  </si>
+  <si>
+    <t>Laezza, Rita</t>
+  </si>
+  <si>
+    <t>Chalmers University of Technology</t>
+  </si>
+  <si>
+    <t>Geer, Idril</t>
+  </si>
+  <si>
+    <t>CSIC-UPC</t>
+  </si>
+  <si>
+    <t>Nadon, Felix</t>
+  </si>
+  <si>
+    <t>Herguedas, Rafael</t>
+  </si>
+  <si>
+    <t>Jin, Shiyu</t>
+  </si>
+  <si>
+    <t>Kappassov, Zhanat</t>
+  </si>
+  <si>
+    <t>Nazarbayev University</t>
+  </si>
+  <si>
+    <t>Wenlong Zhang</t>
+  </si>
+  <si>
+    <t>Domenico Prattichizzo</t>
+  </si>
+  <si>
+    <t>Alexandre Girard</t>
+  </si>
+  <si>
+    <t>University of Sherbrooke</t>
+  </si>
+  <si>
+    <t>Daniel Gonzalez</t>
+  </si>
+  <si>
+    <t>USMA West Point</t>
+  </si>
+  <si>
+    <t>Faye Wu</t>
+  </si>
+  <si>
+    <t>Manus Robotics, Inc</t>
+  </si>
+  <si>
+    <t>Harry Asada, Wenlong Zhang, Domenico Prattichizzo, Alex Girard, Faye Wu</t>
+  </si>
+  <si>
+    <t>MIT, Arizona State Univ., Univ. Siena, Univ. Sherbrooke, Manus Robotics</t>
+  </si>
+  <si>
+    <t>Harry Asada, Masahiko Inami, Daniel Gonzalez</t>
+  </si>
+  <si>
+    <t>MIT, Univ. Tokyo, USMA West Point</t>
+  </si>
+  <si>
+    <t>University of Siena and Istituto Italiano di Tecnologia, Italy</t>
+  </si>
+  <si>
+    <t>3502_WV.mp4</t>
+  </si>
+  <si>
+    <t>Welcome and Anibal Ollero</t>
+  </si>
+  <si>
+    <t>University of Seville</t>
+  </si>
+  <si>
+    <t>Sun Kyung Kim</t>
+  </si>
+  <si>
+    <t>NASA/JPL</t>
+  </si>
+  <si>
+    <t>Sertac Karaman</t>
+  </si>
+  <si>
+    <t>Contributed papers 1 and FPV competition</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Giuseppe Loianno</t>
+  </si>
+  <si>
+    <t>Nikolai Smolyanskiy</t>
+  </si>
+  <si>
+    <t>Mac Schwager</t>
+  </si>
+  <si>
+    <t>Panel discussion Final Day 1</t>
+  </si>
+  <si>
+    <t>Angela Schoelling and Melissa Greff</t>
+  </si>
+  <si>
+    <t>Guido De Croon</t>
+  </si>
+  <si>
+    <t>Shaojie Shen</t>
+  </si>
+  <si>
+    <t>HKUST</t>
+  </si>
+  <si>
+    <t>Contributed papers Day 2</t>
+  </si>
+  <si>
+    <t>Aleksandra Faust</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Davide Scaramuzza</t>
+  </si>
+  <si>
+    <t>Ashish Kapoor</t>
   </si>
 </sst>
 </file>
@@ -10168,9 +10336,9 @@
   </sheetPr>
   <dimension ref="A1:AK916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J376" sqref="J376"/>
+      <selection pane="topRight" activeCell="N284" sqref="N284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13692,11 +13860,13 @@
         <v>361</v>
       </c>
       <c r="G54" s="59"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44" t="s">
-        <v>2903</v>
-      </c>
-      <c r="J54" s="9"/>
+      <c r="H54" s="44">
+        <v>0</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="9" t="s">
+        <v>3167</v>
+      </c>
       <c r="K54" s="53" t="s">
         <v>362</v>
       </c>
@@ -15663,7 +15833,7 @@
       </c>
       <c r="G84" s="61"/>
       <c r="H84" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="45"/>
       <c r="J84" s="16" t="s">
@@ -15726,7 +15896,7 @@
       </c>
       <c r="G85" s="61"/>
       <c r="H85" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="45"/>
       <c r="J85" s="16" t="s">
@@ -15789,7 +15959,7 @@
       </c>
       <c r="G86" s="61"/>
       <c r="H86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="45"/>
       <c r="J86" s="16" t="s">
@@ -15852,7 +16022,7 @@
       </c>
       <c r="G87" s="61"/>
       <c r="H87" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="45"/>
       <c r="J87" s="16" t="s">
@@ -15915,7 +16085,7 @@
       </c>
       <c r="G88" s="61"/>
       <c r="H88" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="45"/>
       <c r="J88" s="16" t="s">
@@ -15978,7 +16148,7 @@
       </c>
       <c r="G89" s="61"/>
       <c r="H89" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="45"/>
       <c r="J89" s="16" t="s">
@@ -16041,7 +16211,7 @@
       </c>
       <c r="G90" s="61"/>
       <c r="H90" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="45"/>
       <c r="J90" s="16" t="s">
@@ -16104,7 +16274,7 @@
       </c>
       <c r="G91" s="61"/>
       <c r="H91" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="45"/>
       <c r="J91" s="16" t="s">
@@ -16167,7 +16337,7 @@
       </c>
       <c r="G92" s="61"/>
       <c r="H92" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="45"/>
       <c r="J92" s="16" t="s">
@@ -16230,7 +16400,7 @@
       </c>
       <c r="G93" s="61"/>
       <c r="H93" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="45"/>
       <c r="J93" s="16" t="s">
@@ -17028,7 +17198,7 @@
       </c>
       <c r="G105" s="61"/>
       <c r="H105" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="45"/>
       <c r="J105" s="16" t="s">
@@ -17091,7 +17261,7 @@
       </c>
       <c r="G106" s="61"/>
       <c r="H106" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="45"/>
       <c r="J106" s="16" t="s">
@@ -17154,7 +17324,7 @@
       </c>
       <c r="G107" s="61"/>
       <c r="H107" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="45"/>
       <c r="J107" s="16" t="s">
@@ -17217,7 +17387,7 @@
       </c>
       <c r="G108" s="61"/>
       <c r="H108" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="45"/>
       <c r="J108" s="16" t="s">
@@ -17280,7 +17450,7 @@
       </c>
       <c r="G109" s="61"/>
       <c r="H109" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="45"/>
       <c r="J109" s="16" t="s">
@@ -17343,7 +17513,7 @@
       </c>
       <c r="G110" s="61"/>
       <c r="H110" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="45"/>
       <c r="J110" s="16" t="s">
@@ -17406,7 +17576,7 @@
       </c>
       <c r="G111" s="61"/>
       <c r="H111" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="45"/>
       <c r="J111" s="16" t="s">
@@ -17469,7 +17639,7 @@
       </c>
       <c r="G112" s="61"/>
       <c r="H112" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="45"/>
       <c r="J112" s="16" t="s">
@@ -17532,7 +17702,7 @@
       </c>
       <c r="G113" s="61"/>
       <c r="H113" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="45"/>
       <c r="J113" s="16" t="s">
@@ -17595,7 +17765,7 @@
       </c>
       <c r="G114" s="61"/>
       <c r="H114" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="45"/>
       <c r="J114" s="16" t="s">
@@ -17658,7 +17828,7 @@
       </c>
       <c r="G115" s="61"/>
       <c r="H115" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="45"/>
       <c r="J115" s="16" t="s">
@@ -17721,7 +17891,7 @@
       </c>
       <c r="G116" s="61"/>
       <c r="H116" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="45"/>
       <c r="J116" s="16" t="s">
@@ -17784,7 +17954,7 @@
       </c>
       <c r="G117" s="61"/>
       <c r="H117" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="45"/>
       <c r="J117" s="16" t="s">
@@ -20466,11 +20636,9 @@
       </c>
       <c r="G159" s="59"/>
       <c r="H159" s="44">
-        <v>1</v>
-      </c>
-      <c r="I159" s="44" t="s">
-        <v>2906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" s="44"/>
       <c r="J159" s="8" t="s">
         <v>833</v>
       </c>
@@ -24113,7 +24281,7 @@
       </c>
       <c r="G216" s="59"/>
       <c r="H216" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" s="44"/>
       <c r="J216" s="8" t="s">
@@ -27414,11 +27582,11 @@
         <v>1355</v>
       </c>
       <c r="L267" s="52"/>
-      <c r="M267" s="16" t="s">
-        <v>1343</v>
+      <c r="M267" s="72" t="s">
+        <v>3168</v>
       </c>
       <c r="N267" s="72" t="s">
-        <v>1344</v>
+        <v>3169</v>
       </c>
       <c r="O267" s="17" t="s">
         <v>1356</v>
@@ -27477,11 +27645,11 @@
         <v>1359</v>
       </c>
       <c r="L268" s="52"/>
-      <c r="M268" s="16" t="s">
-        <v>1343</v>
+      <c r="M268" s="72" t="s">
+        <v>3170</v>
       </c>
       <c r="N268" s="72" t="s">
-        <v>1344</v>
+        <v>3171</v>
       </c>
       <c r="O268" s="17" t="s">
         <v>1360</v>
@@ -27540,11 +27708,11 @@
         <v>1363</v>
       </c>
       <c r="L269" s="52"/>
-      <c r="M269" s="16" t="s">
-        <v>1343</v>
+      <c r="M269" s="72" t="s">
+        <v>1268</v>
       </c>
       <c r="N269" s="72" t="s">
-        <v>1344</v>
+        <v>1269</v>
       </c>
       <c r="O269" s="17" t="s">
         <v>1364</v>
@@ -27603,11 +27771,11 @@
         <v>1367</v>
       </c>
       <c r="L270" s="52"/>
-      <c r="M270" s="16" t="s">
-        <v>1343</v>
+      <c r="M270" s="72" t="s">
+        <v>3172</v>
       </c>
       <c r="N270" s="72" t="s">
-        <v>1344</v>
+        <v>3173</v>
       </c>
       <c r="O270" s="17" t="s">
         <v>1368</v>
@@ -27666,11 +27834,11 @@
         <v>1371</v>
       </c>
       <c r="L271" s="52"/>
-      <c r="M271" s="16" t="s">
-        <v>1343</v>
+      <c r="M271" s="72" t="s">
+        <v>920</v>
       </c>
       <c r="N271" s="72" t="s">
-        <v>1344</v>
+        <v>921</v>
       </c>
       <c r="O271" s="17" t="s">
         <v>1372</v>
@@ -27729,11 +27897,11 @@
         <v>1375</v>
       </c>
       <c r="L272" s="52"/>
-      <c r="M272" s="16" t="s">
-        <v>1343</v>
+      <c r="M272" s="72" t="s">
+        <v>3174</v>
       </c>
       <c r="N272" s="72" t="s">
-        <v>1344</v>
+        <v>495</v>
       </c>
       <c r="O272" s="17" t="s">
         <v>1376</v>
@@ -27792,11 +27960,11 @@
         <v>1379</v>
       </c>
       <c r="L273" s="52"/>
-      <c r="M273" s="16" t="s">
-        <v>1343</v>
+      <c r="M273" s="72" t="s">
+        <v>3175</v>
       </c>
       <c r="N273" s="72" t="s">
-        <v>1344</v>
+        <v>3176</v>
       </c>
       <c r="O273" s="17" t="s">
         <v>1380</v>
@@ -27855,11 +28023,11 @@
         <v>1383</v>
       </c>
       <c r="L274" s="52"/>
-      <c r="M274" s="16" t="s">
-        <v>1343</v>
+      <c r="M274" s="72" t="s">
+        <v>3177</v>
       </c>
       <c r="N274" s="72" t="s">
-        <v>1344</v>
+        <v>306</v>
       </c>
       <c r="O274" s="17" t="s">
         <v>1384</v>
@@ -27918,11 +28086,11 @@
         <v>1387</v>
       </c>
       <c r="L275" s="52"/>
-      <c r="M275" s="16" t="s">
-        <v>1343</v>
+      <c r="M275" s="72" t="s">
+        <v>3178</v>
       </c>
       <c r="N275" s="72" t="s">
-        <v>1344</v>
+        <v>3179</v>
       </c>
       <c r="O275" s="17" t="s">
         <v>1388</v>
@@ -27981,11 +28149,11 @@
         <v>1391</v>
       </c>
       <c r="L276" s="52"/>
-      <c r="M276" s="16" t="s">
-        <v>1343</v>
+      <c r="M276" s="72" t="s">
+        <v>3180</v>
       </c>
       <c r="N276" s="72" t="s">
-        <v>1344</v>
+        <v>3181</v>
       </c>
       <c r="O276" s="17" t="s">
         <v>1392</v>
@@ -28044,11 +28212,11 @@
         <v>1395</v>
       </c>
       <c r="L277" s="52"/>
-      <c r="M277" s="16" t="s">
-        <v>1343</v>
+      <c r="M277" s="72" t="s">
+        <v>3182</v>
       </c>
       <c r="N277" s="72" t="s">
-        <v>1344</v>
+        <v>3183</v>
       </c>
       <c r="O277" s="17" t="s">
         <v>1396</v>
@@ -28107,11 +28275,11 @@
         <v>1399</v>
       </c>
       <c r="L278" s="52"/>
-      <c r="M278" s="16" t="s">
-        <v>1343</v>
+      <c r="M278" s="72" t="s">
+        <v>3184</v>
       </c>
       <c r="N278" s="72" t="s">
-        <v>1344</v>
+        <v>1292</v>
       </c>
       <c r="O278" s="17" t="s">
         <v>1400</v>
@@ -28170,11 +28338,11 @@
         <v>1403</v>
       </c>
       <c r="L279" s="52"/>
-      <c r="M279" s="16" t="s">
-        <v>1343</v>
+      <c r="M279" s="72" t="s">
+        <v>3185</v>
       </c>
       <c r="N279" s="72" t="s">
-        <v>1344</v>
+        <v>1286</v>
       </c>
       <c r="O279" s="17" t="s">
         <v>1404</v>
@@ -28233,11 +28401,11 @@
         <v>1407</v>
       </c>
       <c r="L280" s="52"/>
-      <c r="M280" s="16" t="s">
-        <v>1343</v>
+      <c r="M280" s="72" t="s">
+        <v>3186</v>
       </c>
       <c r="N280" s="72" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
       <c r="O280" s="17" t="s">
         <v>1408</v>
@@ -28359,11 +28527,11 @@
         <v>1415</v>
       </c>
       <c r="L282" s="52"/>
-      <c r="M282" s="16" t="s">
-        <v>1343</v>
+      <c r="M282" s="72" t="s">
+        <v>3187</v>
       </c>
       <c r="N282" s="72" t="s">
-        <v>1344</v>
+        <v>3188</v>
       </c>
       <c r="O282" s="17" t="s">
         <v>1416</v>
@@ -28476,10 +28644,10 @@
       <c r="G284" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="H284" s="44"/>
-      <c r="I284" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H284" s="44">
+        <v>0</v>
+      </c>
+      <c r="I284" s="44"/>
       <c r="J284" s="8" t="s">
         <v>1426</v>
       </c>
@@ -28487,11 +28655,11 @@
         <v>1427</v>
       </c>
       <c r="L284" s="53"/>
-      <c r="M284" s="8" t="s">
-        <v>1428</v>
+      <c r="M284" s="70" t="s">
+        <v>3203</v>
       </c>
       <c r="N284" s="70" t="s">
-        <v>1429</v>
+        <v>3204</v>
       </c>
       <c r="O284" s="10" t="s">
         <v>522</v>
@@ -28553,20 +28721,22 @@
         <v>1434</v>
       </c>
       <c r="G285" s="59"/>
-      <c r="H285" s="44"/>
-      <c r="I285" s="44" t="s">
-        <v>2913</v>
-      </c>
-      <c r="J285" s="9"/>
+      <c r="H285" s="44">
+        <v>0</v>
+      </c>
+      <c r="I285" s="44"/>
+      <c r="J285" s="9" t="s">
+        <v>3202</v>
+      </c>
       <c r="K285" s="53" t="s">
         <v>1435</v>
       </c>
       <c r="L285" s="53"/>
-      <c r="M285" s="8" t="s">
-        <v>1428</v>
+      <c r="M285" s="70" t="s">
+        <v>3205</v>
       </c>
       <c r="N285" s="70" t="s">
-        <v>1429</v>
+        <v>3206</v>
       </c>
       <c r="O285" s="10" t="s">
         <v>522</v>
@@ -28614,10 +28784,10 @@
         <v>1436</v>
       </c>
       <c r="G286" s="59"/>
-      <c r="H286" s="44"/>
-      <c r="I286" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H286" s="44">
+        <v>0</v>
+      </c>
+      <c r="I286" s="44"/>
       <c r="J286" s="8" t="s">
         <v>1437</v>
       </c>
@@ -28625,11 +28795,11 @@
         <v>1438</v>
       </c>
       <c r="L286" s="53"/>
-      <c r="M286" s="8" t="s">
-        <v>1428</v>
+      <c r="M286" s="70" t="s">
+        <v>3207</v>
       </c>
       <c r="N286" s="70" t="s">
-        <v>1429</v>
+        <v>68</v>
       </c>
       <c r="O286" s="10" t="s">
         <v>522</v>
@@ -28677,10 +28847,10 @@
         <v>1439</v>
       </c>
       <c r="G287" s="59"/>
-      <c r="H287" s="44"/>
-      <c r="I287" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H287" s="44">
+        <v>0</v>
+      </c>
+      <c r="I287" s="44"/>
       <c r="J287" s="8" t="s">
         <v>1440</v>
       </c>
@@ -28688,11 +28858,11 @@
         <v>1441</v>
       </c>
       <c r="L287" s="53"/>
-      <c r="M287" s="8" t="s">
-        <v>1428</v>
+      <c r="M287" s="70" t="s">
+        <v>3208</v>
       </c>
       <c r="N287" s="70" t="s">
-        <v>1429</v>
+        <v>3209</v>
       </c>
       <c r="O287" s="10" t="s">
         <v>522</v>
@@ -28740,10 +28910,10 @@
         <v>1442</v>
       </c>
       <c r="G288" s="59"/>
-      <c r="H288" s="44"/>
-      <c r="I288" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H288" s="44">
+        <v>0</v>
+      </c>
+      <c r="I288" s="44"/>
       <c r="J288" s="8" t="s">
         <v>1443</v>
       </c>
@@ -28751,8 +28921,8 @@
         <v>1444</v>
       </c>
       <c r="L288" s="53"/>
-      <c r="M288" s="8" t="s">
-        <v>1428</v>
+      <c r="M288" s="70" t="s">
+        <v>3210</v>
       </c>
       <c r="N288" s="70" t="s">
         <v>1429</v>
@@ -28814,11 +28984,11 @@
         <v>1447</v>
       </c>
       <c r="L289" s="53"/>
-      <c r="M289" s="8" t="s">
-        <v>1428</v>
+      <c r="M289" s="70" t="s">
+        <v>3211</v>
       </c>
       <c r="N289" s="70" t="s">
-        <v>1429</v>
+        <v>2968</v>
       </c>
       <c r="O289" s="10" t="s">
         <v>522</v>
@@ -28877,11 +29047,11 @@
         <v>1450</v>
       </c>
       <c r="L290" s="53"/>
-      <c r="M290" s="8" t="s">
-        <v>1428</v>
+      <c r="M290" s="70" t="s">
+        <v>3212</v>
       </c>
       <c r="N290" s="70" t="s">
-        <v>1429</v>
+        <v>979</v>
       </c>
       <c r="O290" s="10" t="s">
         <v>522</v>
@@ -28940,11 +29110,11 @@
         <v>1453</v>
       </c>
       <c r="L291" s="53"/>
-      <c r="M291" s="8" t="s">
-        <v>1428</v>
+      <c r="M291" s="70" t="s">
+        <v>3213</v>
       </c>
       <c r="N291" s="70" t="s">
-        <v>1429</v>
+        <v>3209</v>
       </c>
       <c r="O291" s="10" t="s">
         <v>522</v>
@@ -28992,10 +29162,10 @@
         <v>1454</v>
       </c>
       <c r="G292" s="59"/>
-      <c r="H292" s="44"/>
-      <c r="I292" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H292" s="44">
+        <v>0</v>
+      </c>
+      <c r="I292" s="44"/>
       <c r="J292" s="8" t="s">
         <v>1455</v>
       </c>
@@ -29003,11 +29173,11 @@
         <v>1456</v>
       </c>
       <c r="L292" s="53"/>
-      <c r="M292" s="8" t="s">
-        <v>1428</v>
+      <c r="M292" s="70" t="s">
+        <v>3214</v>
       </c>
       <c r="N292" s="70" t="s">
-        <v>1429</v>
+        <v>1023</v>
       </c>
       <c r="O292" s="10" t="s">
         <v>522</v>
@@ -29055,10 +29225,10 @@
         <v>1457</v>
       </c>
       <c r="G293" s="59"/>
-      <c r="H293" s="44"/>
-      <c r="I293" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H293" s="44">
+        <v>0</v>
+      </c>
+      <c r="I293" s="44"/>
       <c r="J293" s="8" t="s">
         <v>1458</v>
       </c>
@@ -29066,11 +29236,11 @@
         <v>1459</v>
       </c>
       <c r="L293" s="53"/>
-      <c r="M293" s="8" t="s">
-        <v>1428</v>
+      <c r="M293" s="70" t="s">
+        <v>3215</v>
       </c>
       <c r="N293" s="70" t="s">
-        <v>1429</v>
+        <v>1262</v>
       </c>
       <c r="O293" s="10" t="s">
         <v>522</v>
@@ -29129,11 +29299,11 @@
         <v>1462</v>
       </c>
       <c r="L294" s="53"/>
-      <c r="M294" s="8" t="s">
-        <v>1428</v>
+      <c r="M294" s="70" t="s">
+        <v>3216</v>
       </c>
       <c r="N294" s="70" t="s">
-        <v>1429</v>
+        <v>3217</v>
       </c>
       <c r="O294" s="10" t="s">
         <v>522</v>
@@ -29181,10 +29351,10 @@
         <v>1463</v>
       </c>
       <c r="G295" s="59"/>
-      <c r="H295" s="44"/>
-      <c r="I295" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H295" s="44">
+        <v>0</v>
+      </c>
+      <c r="I295" s="44"/>
       <c r="J295" s="8" t="s">
         <v>1464</v>
       </c>
@@ -29192,11 +29362,11 @@
         <v>1465</v>
       </c>
       <c r="L295" s="53"/>
-      <c r="M295" s="8" t="s">
-        <v>1428</v>
+      <c r="M295" s="70" t="s">
+        <v>3218</v>
       </c>
       <c r="N295" s="70" t="s">
-        <v>1429</v>
+        <v>3209</v>
       </c>
       <c r="O295" s="10" t="s">
         <v>522</v>
@@ -29244,10 +29414,10 @@
         <v>1466</v>
       </c>
       <c r="G296" s="59"/>
-      <c r="H296" s="44"/>
-      <c r="I296" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H296" s="44">
+        <v>0</v>
+      </c>
+      <c r="I296" s="44"/>
       <c r="J296" s="8" t="s">
         <v>1467</v>
       </c>
@@ -29255,11 +29425,11 @@
         <v>1468</v>
       </c>
       <c r="L296" s="53"/>
-      <c r="M296" s="8" t="s">
-        <v>1428</v>
+      <c r="M296" s="70" t="s">
+        <v>3219</v>
       </c>
       <c r="N296" s="70" t="s">
-        <v>1429</v>
+        <v>3220</v>
       </c>
       <c r="O296" s="10" t="s">
         <v>522</v>
@@ -29307,10 +29477,10 @@
         <v>1469</v>
       </c>
       <c r="G297" s="59"/>
-      <c r="H297" s="44"/>
-      <c r="I297" s="44" t="s">
-        <v>2915</v>
-      </c>
+      <c r="H297" s="44">
+        <v>0</v>
+      </c>
+      <c r="I297" s="44"/>
       <c r="J297" s="8" t="s">
         <v>1470</v>
       </c>
@@ -29318,11 +29488,11 @@
         <v>1471</v>
       </c>
       <c r="L297" s="53"/>
-      <c r="M297" s="8" t="s">
-        <v>1428</v>
+      <c r="M297" s="70" t="s">
+        <v>3221</v>
       </c>
       <c r="N297" s="70" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="O297" s="10" t="s">
         <v>522</v>
@@ -29381,11 +29551,11 @@
         <v>1474</v>
       </c>
       <c r="L298" s="53"/>
-      <c r="M298" s="8" t="s">
-        <v>1428</v>
+      <c r="M298" s="70" t="s">
+        <v>3222</v>
       </c>
       <c r="N298" s="70" t="s">
-        <v>1429</v>
+        <v>2815</v>
       </c>
       <c r="O298" s="10" t="s">
         <v>522</v>
@@ -32897,7 +33067,7 @@
       </c>
       <c r="G354" s="59"/>
       <c r="H354" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" s="44"/>
       <c r="J354" s="8" t="s">
@@ -33021,7 +33191,7 @@
       </c>
       <c r="G356" s="59"/>
       <c r="H356" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" s="44"/>
       <c r="J356" s="8" t="s">
@@ -34297,7 +34467,7 @@
       </c>
       <c r="G376" s="59"/>
       <c r="H376" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" s="44"/>
       <c r="J376" s="8" t="s">
@@ -36996,11 +37166,11 @@
         <v>1931</v>
       </c>
       <c r="L419" s="53"/>
-      <c r="M419" s="8" t="s">
-        <v>1922</v>
+      <c r="M419" s="70" t="s">
+        <v>3189</v>
       </c>
       <c r="N419" s="70" t="s">
-        <v>68</v>
+        <v>2568</v>
       </c>
       <c r="O419" s="10" t="s">
         <v>1932</v>
@@ -37059,11 +37229,11 @@
         <v>1935</v>
       </c>
       <c r="L420" s="53"/>
-      <c r="M420" s="8" t="s">
-        <v>1922</v>
+      <c r="M420" s="70" t="s">
+        <v>3190</v>
       </c>
       <c r="N420" s="70" t="s">
-        <v>68</v>
+        <v>3201</v>
       </c>
       <c r="O420" s="10" t="s">
         <v>1936</v>
@@ -37185,11 +37355,11 @@
         <v>1944</v>
       </c>
       <c r="L422" s="53"/>
-      <c r="M422" s="8" t="s">
-        <v>1922</v>
+      <c r="M422" s="70" t="s">
+        <v>3191</v>
       </c>
       <c r="N422" s="70" t="s">
-        <v>68</v>
+        <v>3192</v>
       </c>
       <c r="O422" s="10" t="s">
         <v>1945</v>
@@ -37248,11 +37418,11 @@
         <v>1948</v>
       </c>
       <c r="L423" s="53"/>
-      <c r="M423" s="8" t="s">
-        <v>1922</v>
+      <c r="M423" s="70" t="s">
+        <v>3193</v>
       </c>
       <c r="N423" s="70" t="s">
-        <v>68</v>
+        <v>3194</v>
       </c>
       <c r="O423" s="10" t="s">
         <v>1949</v>
@@ -37311,11 +37481,11 @@
         <v>1952</v>
       </c>
       <c r="L424" s="53"/>
-      <c r="M424" s="8" t="s">
-        <v>1922</v>
+      <c r="M424" s="70" t="s">
+        <v>3195</v>
       </c>
       <c r="N424" s="70" t="s">
-        <v>68</v>
+        <v>3196</v>
       </c>
       <c r="O424" s="10" t="s">
         <v>1953</v>
@@ -37374,11 +37544,11 @@
         <v>1956</v>
       </c>
       <c r="L425" s="53"/>
-      <c r="M425" s="8" t="s">
-        <v>1922</v>
+      <c r="M425" s="70" t="s">
+        <v>3197</v>
       </c>
       <c r="N425" s="70" t="s">
-        <v>68</v>
+        <v>3198</v>
       </c>
       <c r="O425" s="10" t="s">
         <v>1957</v>
@@ -37563,11 +37733,11 @@
         <v>1968</v>
       </c>
       <c r="L428" s="53"/>
-      <c r="M428" s="8" t="s">
-        <v>1922</v>
+      <c r="M428" s="70" t="s">
+        <v>3199</v>
       </c>
       <c r="N428" s="70" t="s">
-        <v>68</v>
+        <v>3200</v>
       </c>
       <c r="O428" s="10" t="s">
         <v>1969</v>
@@ -38006,7 +38176,7 @@
       </c>
       <c r="G435" s="61"/>
       <c r="H435" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" s="45"/>
       <c r="J435" s="16" t="s">
@@ -48386,7 +48556,7 @@
       </c>
       <c r="G601" s="59"/>
       <c r="H601" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" s="44"/>
       <c r="J601" s="8" t="s">
@@ -48449,7 +48619,7 @@
       </c>
       <c r="G602" s="59"/>
       <c r="H602" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" s="44"/>
       <c r="J602" s="8" t="s">
@@ -48512,7 +48682,7 @@
       </c>
       <c r="G603" s="59"/>
       <c r="H603" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" s="44"/>
       <c r="J603" s="8" t="s">
@@ -48575,7 +48745,7 @@
       </c>
       <c r="G604" s="59"/>
       <c r="H604" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" s="44"/>
       <c r="J604" s="8" t="s">
@@ -48638,7 +48808,7 @@
       </c>
       <c r="G605" s="59"/>
       <c r="H605" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" s="44"/>
       <c r="J605" s="8" t="s">
@@ -48890,7 +49060,7 @@
       </c>
       <c r="G609" s="59"/>
       <c r="H609" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" s="44"/>
       <c r="J609" s="8" t="s">
@@ -48953,7 +49123,7 @@
       </c>
       <c r="G610" s="59"/>
       <c r="H610" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" s="44"/>
       <c r="J610" s="8" t="s">
@@ -49079,7 +49249,7 @@
       </c>
       <c r="G612" s="59"/>
       <c r="H612" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" s="44"/>
       <c r="J612" s="8" t="s">
@@ -49142,7 +49312,7 @@
       </c>
       <c r="G613" s="59"/>
       <c r="H613" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" s="44"/>
       <c r="J613" s="8" t="s">
